--- a/TEMOA_Europe_Results/_5_Final_consumption.xlsx
+++ b/TEMOA_Europe_Results/_5_Final_consumption.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="150">
   <si>
     <t>tech</t>
   </si>
@@ -53,15 +53,9 @@
     <t>UPS_FT_NGA</t>
   </si>
   <si>
-    <t>UPS_FT_ELC</t>
-  </si>
-  <si>
     <t>HH2_FT_NGA</t>
   </si>
   <si>
-    <t>HH2_FT_ELC</t>
-  </si>
-  <si>
     <t>ELC_FT_NGA</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
     <t>ELC_FT_BIO</t>
   </si>
   <si>
-    <t>ELC_FT_BGS</t>
-  </si>
-  <si>
     <t>ELC_FT_CRP</t>
   </si>
   <si>
@@ -98,6 +89,9 @@
     <t>ELC_FT_SOL_CSP</t>
   </si>
   <si>
+    <t>ELC_FT_WAV</t>
+  </si>
+  <si>
     <t>ELC_FT_TDL</t>
   </si>
   <si>
@@ -134,9 +128,6 @@
     <t>AGR_FT_GEO</t>
   </si>
   <si>
-    <t>AGR_FT_ELC</t>
-  </si>
-  <si>
     <t>AGR_FT_HET</t>
   </si>
   <si>
@@ -170,9 +161,6 @@
     <t>COM_FT_SOL</t>
   </si>
   <si>
-    <t>COM_FT_ELC</t>
-  </si>
-  <si>
     <t>COM_FT_HET</t>
   </si>
   <si>
@@ -206,9 +194,6 @@
     <t>RES_FT_SOL</t>
   </si>
   <si>
-    <t>RES_FT_ELC</t>
-  </si>
-  <si>
     <t>RES_FT_HET</t>
   </si>
   <si>
@@ -224,9 +209,6 @@
     <t>TRA_FT_COA</t>
   </si>
   <si>
-    <t>TRA_FT_ELC</t>
-  </si>
-  <si>
     <t>TRA_FT_HFO</t>
   </si>
   <si>
@@ -248,12 +230,12 @@
     <t>HH2_DEL_TRA_LH2_C_1_NEW</t>
   </si>
   <si>
-    <t>HH2_DEL_TRA_LH2_C_2_NEW</t>
-  </si>
-  <si>
     <t>HH2_DEL_TRA_GH2_C_4_NEW</t>
   </si>
   <si>
+    <t>HH2_DEL_TRA_GH2_D_1_NEW</t>
+  </si>
+  <si>
     <t>TRA_FT_DST_INT</t>
   </si>
   <si>
@@ -317,13 +299,10 @@
     <t>IND_FT_GEO</t>
   </si>
   <si>
-    <t>IND_FT_ELC</t>
-  </si>
-  <si>
     <t>IND_FT_HET</t>
   </si>
   <si>
-    <t>HH2_DEL_IND_C_1_NEW</t>
+    <t>HH2_WE_DEL_IND_C_1_NEW</t>
   </si>
   <si>
     <t>HH2_WE_DEL_IND_D_1_NEW</t>
@@ -332,12 +311,6 @@
     <t>PRI_GAS_NGA</t>
   </si>
   <si>
-    <t>ELC_CEN</t>
-  </si>
-  <si>
-    <t>ELC_DIS</t>
-  </si>
-  <si>
     <t>RNW_POT_BIO_GAS</t>
   </si>
   <si>
@@ -398,6 +371,9 @@
     <t>RNW_POT_SOL_CSP</t>
   </si>
   <si>
+    <t>RNW_POT_WAV</t>
+  </si>
+  <si>
     <t>RNW_POT_TDL</t>
   </si>
   <si>
@@ -437,6 +413,9 @@
     <t>RNW_BIO_ETBE</t>
   </si>
   <si>
+    <t>SYN_DST_kt</t>
+  </si>
+  <si>
     <t>RNW_BIO_EMHV</t>
   </si>
   <si>
@@ -464,6 +443,9 @@
     <t>HH2_CU</t>
   </si>
   <si>
+    <t>HH2_DT</t>
+  </si>
+  <si>
     <t>HH2_CT</t>
   </si>
   <si>
@@ -477,6 +459,9 @@
   </si>
   <si>
     <t>PRI_OIL_NAP</t>
+  </si>
+  <si>
+    <t>RNW_BIO_NAP</t>
   </si>
   <si>
     <t>output_comm</t>
@@ -837,7 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L156"/>
+  <dimension ref="A1:L144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -886,13 +871,13 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D2">
         <v>1.008064516129032</v>
       </c>
       <c r="E2">
-        <v>1.008064516129032</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -901,16 +886,16 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.930861426738003</v>
+        <v>13.51487908497587</v>
       </c>
       <c r="I2">
-        <v>18.21203087556266</v>
+        <v>15.41105131504931</v>
       </c>
       <c r="J2">
-        <v>17.94425131856506</v>
+        <v>17.9453959682406</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>17.63902631710519</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -924,34 +909,34 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D3">
-        <v>265.3410288774525</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>265.3410288774525</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>265.3410288774525</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>213.0562941759194</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>162.4714906205973</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>131.6253790035631</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>75.29451157275065</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>140.9619243525557</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>461.8126982304515</v>
+        <v>479.3505329180259</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -962,34 +947,34 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>7875.671341648519</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>5434.648277032974</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>6184.248740614077</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1743.011716573406</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1133.3462249331</v>
       </c>
       <c r="I4">
-        <v>2.158995368885065</v>
+        <v>316.0748396758877</v>
       </c>
       <c r="J4">
-        <v>13.38125801033672</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>478.1952448197747</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>478.1952448197747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -997,10 +982,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1012,22 +997,22 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.03739046972525129</v>
+        <v>227.1353019268994</v>
       </c>
       <c r="H5">
-        <v>0.2609208458226871</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.452276686070624</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>8.161859554848272</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>39.34662875643078</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>113.0122472574752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1038,25 +1023,25 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>6.801850538093468</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>4.958855866887887</v>
       </c>
       <c r="F6">
-        <v>0.8928079360705348</v>
+        <v>3.731440058905303</v>
       </c>
       <c r="G6">
-        <v>0.03601018620378967</v>
+        <v>3.028460570962756</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.516045407591553</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.554</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1073,31 +1058,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D7">
-        <v>7902.500863679446</v>
+        <v>1.943385868026705</v>
       </c>
       <c r="E7">
-        <v>5472.605735751949</v>
+        <v>1.416815961967968</v>
       </c>
       <c r="F7">
-        <v>6116.922334992328</v>
+        <v>1.066125731115801</v>
       </c>
       <c r="G7">
-        <v>1669.337600222434</v>
+        <v>0.8652744488465017</v>
       </c>
       <c r="H7">
-        <v>1068.530596767604</v>
+        <v>0.4331558307404437</v>
       </c>
       <c r="I7">
-        <v>245.0294291266952</v>
+        <v>0.1748707448275863</v>
       </c>
       <c r="J7">
-        <v>16.65522537328226</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1111,28 +1096,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>62.18834777685455</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>45.33811078297496</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>34.11602339570562</v>
       </c>
       <c r="G8">
-        <v>349.0211534920901</v>
+        <v>27.68878236308805</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>83.83771884560279</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>28.86803071586206</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1149,28 +1134,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>4.858464670066763</v>
       </c>
       <c r="E9">
-        <v>0.253</v>
+        <v>3.542039904919919</v>
       </c>
       <c r="F9">
-        <v>3.731440058905303</v>
+        <v>2.665314327789503</v>
       </c>
       <c r="G9">
-        <v>3.099331922440966</v>
+        <v>2.163186122116254</v>
       </c>
       <c r="H9">
         <v>0.5488441692595563</v>
       </c>
       <c r="I9">
-        <v>0.554</v>
+        <v>0.4371768620689657</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1187,28 +1172,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D10">
-        <v>1.943385868026706</v>
+        <v>864.8067112718838</v>
       </c>
       <c r="E10">
-        <v>1.416815961967968</v>
+        <v>630.4831030757456</v>
       </c>
       <c r="F10">
-        <v>1.066125731115801</v>
+        <v>474.4259503465314</v>
       </c>
       <c r="G10">
-        <v>0.8855234064117048</v>
+        <v>385.0471297366933</v>
       </c>
       <c r="H10">
-        <v>0.4331558307404437</v>
+        <v>123.5282357405507</v>
       </c>
       <c r="I10">
-        <v>0.1748707448275863</v>
+        <v>54.60336217379314</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1225,28 +1210,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D11">
-        <v>285.4344847371391</v>
+        <v>30.12248095441394</v>
       </c>
       <c r="E11">
-        <v>76.06206194627023</v>
+        <v>21.9606474105035</v>
       </c>
       <c r="F11">
-        <v>34.11602339570561</v>
+        <v>16.52494883229491</v>
       </c>
       <c r="G11">
-        <v>28.33674900517454</v>
+        <v>13.41175395712078</v>
       </c>
       <c r="H11">
-        <v>49.58446154523442</v>
+        <v>6.713915376476879</v>
       </c>
       <c r="I11">
-        <v>19.79793968314916</v>
+        <v>2.710496544827587</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1263,28 +1248,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.9716929340133528</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.7084079809839837</v>
       </c>
       <c r="F12">
-        <v>2.665314327789503</v>
+        <v>0.5330628655579004</v>
       </c>
       <c r="G12">
-        <v>2.213808516029262</v>
+        <v>0.4326372244232509</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.08743537241379315</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1301,28 +1286,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D13">
-        <v>684.1370634081869</v>
+        <v>0.1794232675676901</v>
       </c>
       <c r="E13">
-        <v>630.4831030757456</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>474.4259503465314</v>
+        <v>4.912319923593631</v>
       </c>
       <c r="G13">
-        <v>394.0579158532086</v>
+        <v>2.588518493352901</v>
       </c>
       <c r="H13">
-        <v>165.7948759096172</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>66.90856198581639</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1339,25 +1324,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>4435.751032261716</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>4356.498111526418</v>
       </c>
       <c r="F14">
-        <v>16.52494883229492</v>
+        <v>2514.084885334642</v>
       </c>
       <c r="G14">
-        <v>13.72561279938143</v>
+        <v>1294.259246676451</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>524.7133248245574</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1377,25 +1362,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D15">
-        <v>0.178</v>
+        <v>4435.571608994148</v>
       </c>
       <c r="E15">
-        <v>0.193</v>
+        <v>4356.498111526418</v>
       </c>
       <c r="F15">
-        <v>0.5330628655579005</v>
+        <v>2509.172565411048</v>
       </c>
       <c r="G15">
-        <v>0.4427617032058523</v>
+        <v>1291.670728183098</v>
       </c>
       <c r="H15">
-        <v>0.2165779153702218</v>
+        <v>524.7133248245574</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1415,37 +1400,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D16">
-        <v>0.3586818765309029</v>
+        <v>0.018</v>
       </c>
       <c r="E16">
-        <v>0.2565589882451115</v>
+        <v>42.23157894736841</v>
       </c>
       <c r="F16">
-        <v>4.597697119483224</v>
+        <v>0.028</v>
       </c>
       <c r="G16">
-        <v>2.070033469487596</v>
+        <v>267.8449933794169</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>405.9979036938159</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>199.1385625891259</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>230.8429372167739</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>587.4923285232172</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>720.1580698718305</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1453,25 +1438,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="D17">
-        <v>4428.289342394808</v>
+        <v>796.0429985929993</v>
       </c>
       <c r="E17">
-        <v>4346.397614169737</v>
+        <v>808.6323066688594</v>
       </c>
       <c r="F17">
-        <v>2532.684781326988</v>
+        <v>574.4531426372948</v>
       </c>
       <c r="G17">
-        <v>1189.35446826694</v>
+        <v>49.43347401223066</v>
       </c>
       <c r="H17">
-        <v>518.4572188883703</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1491,31 +1476,31 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D18">
-        <v>4427.930660518276</v>
+        <v>731.5182420388001</v>
       </c>
       <c r="E18">
-        <v>4346.141055181493</v>
+        <v>736.7162491679832</v>
       </c>
       <c r="F18">
-        <v>2528.087084207506</v>
+        <v>878.6826940911063</v>
       </c>
       <c r="G18">
-        <v>1329.8298046531</v>
+        <v>937.8740681412501</v>
       </c>
       <c r="H18">
-        <v>518.4572188883703</v>
+        <v>617.265184518329</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>678.8389766614387</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>567.7485410419587</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1529,37 +1514,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D19">
-        <v>62.35263157894748</v>
+        <v>23.28197751336041</v>
       </c>
       <c r="E19">
-        <v>1.578</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>8.666736842105134</v>
       </c>
       <c r="G19">
-        <v>63.93048509828784</v>
+        <v>31.1798168220296</v>
       </c>
       <c r="H19">
-        <v>2.946</v>
+        <v>34.642118899663</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.178</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>51.79999999999997</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>726.8356137504423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1567,22 +1552,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D20">
-        <v>761.2356317739223</v>
+        <v>172.7</v>
       </c>
       <c r="E20">
-        <v>659.6759993595838</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>860.7554855501999</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>174.0521652211474</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1597,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>181.9779512195124</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1608,31 +1593,31 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D21">
-        <v>602.2694059670648</v>
+        <v>361.9473684210526</v>
       </c>
       <c r="E21">
-        <v>856.0477669667769</v>
+        <v>405.4184210526315</v>
       </c>
       <c r="F21">
-        <v>550.2613570120712</v>
+        <v>470.972</v>
       </c>
       <c r="G21">
-        <v>1026.924473449914</v>
+        <v>141.7830385725582</v>
       </c>
       <c r="H21">
-        <v>1026.368526935864</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>881.5394359093801</v>
+        <v>80.78958046964634</v>
       </c>
       <c r="J21">
-        <v>742.1296774163075</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>598.254717738272</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1646,28 +1631,28 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D22">
-        <v>24.1</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>12.012531</v>
+        <v>25.95</v>
       </c>
       <c r="F22">
-        <v>0.765</v>
+        <v>19.13326315789487</v>
       </c>
       <c r="G22">
-        <v>20.89689825</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>30.55468017594398</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>38.06084600000001</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>40.09265568167305</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1684,34 +1669,34 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D23">
-        <v>139.6784018410369</v>
+        <v>2088.78</v>
       </c>
       <c r="E23">
-        <v>73.11166633507987</v>
+        <v>2123.37</v>
       </c>
       <c r="F23">
-        <v>65.0095621548341</v>
+        <v>2231.01</v>
       </c>
       <c r="G23">
-        <v>42.30260170042831</v>
+        <v>2273.754959451373</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2365.270617843977</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1755.716164853181</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1513.651419018115</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1359.262061051675</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>2044.200248780948</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1722,34 +1707,34 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D24">
-        <v>172.7</v>
+        <v>173.6402096083868</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>182.8141320302344</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>200.6885546139522</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>196.2931221782352</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>251.3189747720047</v>
       </c>
       <c r="I24">
-        <v>213.450994436412</v>
+        <v>290.6293840766128</v>
       </c>
       <c r="J24">
-        <v>288.5</v>
+        <v>337.5389138307093</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>400.7266638601409</v>
       </c>
       <c r="L24">
-        <v>181.9779512195123</v>
+        <v>460.483572757746</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1760,34 +1745,34 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D25">
-        <v>361.9473684210526</v>
+        <v>164.23</v>
       </c>
       <c r="E25">
-        <v>431.3684210526316</v>
+        <v>361.6799999999999</v>
       </c>
       <c r="F25">
-        <v>471.0000000000001</v>
+        <v>583.6799999999999</v>
       </c>
       <c r="G25">
-        <v>454.0695149017121</v>
+        <v>1424.805412877689</v>
       </c>
       <c r="H25">
-        <v>247.1245316494106</v>
+        <v>2270.828588015974</v>
       </c>
       <c r="I25">
-        <v>610.15</v>
+        <v>3321.952759910013</v>
       </c>
       <c r="J25">
-        <v>655.3</v>
+        <v>4432.897237596907</v>
       </c>
       <c r="K25">
-        <v>655.3000000000001</v>
+        <v>5105.685050617765</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>4845.717985904265</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1795,37 +1780,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>0.2120264392857143</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1.085192100765306</v>
       </c>
       <c r="F26">
-        <v>19.1052631578948</v>
+        <v>2.903255721428571</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>2.893333996428571</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2.730916182142856</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1.837907070663264</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1.181981553473303</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>354.4685172991851</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>589.002936172656</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1833,37 +1818,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D27">
-        <v>2088.78</v>
+        <v>2.74</v>
       </c>
       <c r="E27">
-        <v>2123.37</v>
+        <v>20.13000000000001</v>
       </c>
       <c r="F27">
-        <v>2231.010000000001</v>
+        <v>20.45999999999999</v>
       </c>
       <c r="G27">
-        <v>2248.869096543513</v>
+        <v>20.45999999999999</v>
       </c>
       <c r="H27">
-        <v>2376.657561500261</v>
+        <v>20.45999999999999</v>
       </c>
       <c r="I27">
-        <v>2443.561135122422</v>
+        <v>15.12616433924174</v>
       </c>
       <c r="J27">
-        <v>2530.990080767102</v>
+        <v>7.601225586842809</v>
       </c>
       <c r="K27">
-        <v>2521.308511499652</v>
+        <v>7.601225586848476</v>
       </c>
       <c r="L27">
-        <v>2561.412298739835</v>
+        <v>0.2971069632000003</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1871,37 +1856,37 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D28">
-        <v>173.6402096083869</v>
+        <v>0.2591920188</v>
       </c>
       <c r="E28">
-        <v>182.8141320302343</v>
+        <v>0.2767131576</v>
       </c>
       <c r="F28">
-        <v>200.5605544520826</v>
+        <v>0.2767131576</v>
       </c>
       <c r="G28">
-        <v>196.3098060925226</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>250.4071923098064</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>289.0940118389116</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>335.7750004195148</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>398.2786159029556</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>457.7145754728588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1909,37 +1894,37 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D29">
-        <v>164.23</v>
+        <v>1.4608079812</v>
       </c>
       <c r="E29">
-        <v>361.6799999999999</v>
+        <v>1.4832868424</v>
       </c>
       <c r="F29">
-        <v>583.6799999999998</v>
+        <v>1.5732868424</v>
       </c>
       <c r="G29">
-        <v>1467.830367573006</v>
+        <v>5.7195792</v>
       </c>
       <c r="H29">
-        <v>2346.00813832161</v>
+        <v>0.8199360000000008</v>
       </c>
       <c r="I29">
-        <v>3360.445621816069</v>
+        <v>0.6307200000000006</v>
       </c>
       <c r="J29">
-        <v>4393.115566907952</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>5124.330268771025</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>5113.851299709741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1947,37 +1932,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D30">
-        <v>0.2120264392857142</v>
+        <v>550.0800000000002</v>
       </c>
       <c r="E30">
-        <v>1.085192100765306</v>
+        <v>983.02</v>
       </c>
       <c r="F30">
-        <v>2.903255721428571</v>
+        <v>1530.69</v>
       </c>
       <c r="G30">
-        <v>2.89333399642857</v>
+        <v>2483.153339284388</v>
       </c>
       <c r="H30">
-        <v>2.730916182142856</v>
+        <v>2968.664004468683</v>
       </c>
       <c r="I30">
-        <v>205.5595287877407</v>
+        <v>3070.949472649376</v>
       </c>
       <c r="J30">
-        <v>371.6938289911368</v>
+        <v>3247.47652784112</v>
       </c>
       <c r="K30">
-        <v>1186.370566375193</v>
+        <v>3463.61933677248</v>
       </c>
       <c r="L30">
-        <v>1088.089867682152</v>
+        <v>3493.564058468502</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1985,37 +1970,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D31">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>20.13</v>
+        <v>126.62</v>
       </c>
       <c r="F31">
-        <v>20.45999999999999</v>
+        <v>259.57</v>
       </c>
       <c r="G31">
-        <v>17.57061392639991</v>
+        <v>1074.2031820152</v>
       </c>
       <c r="H31">
-        <v>17.82073224959999</v>
+        <v>2402.914212476633</v>
       </c>
       <c r="I31">
-        <v>45.9731776488118</v>
+        <v>4626.785773364447</v>
       </c>
       <c r="J31">
-        <v>56.41300370960825</v>
+        <v>7688.923007662646</v>
       </c>
       <c r="K31">
-        <v>58.23276041447772</v>
+        <v>10735.29006498129</v>
       </c>
       <c r="L31">
-        <v>58.28880210288207</v>
+        <v>11915.3367051714</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2023,37 +2008,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="D32">
-        <v>1.72</v>
+        <v>170.8961693548387</v>
       </c>
       <c r="E32">
-        <v>1.76</v>
+        <v>143.5453996172209</v>
       </c>
       <c r="F32">
-        <v>1.85</v>
+        <v>151.7308992330156</v>
       </c>
       <c r="G32">
-        <v>7.829001216000002</v>
+        <v>112.4235439340536</v>
       </c>
       <c r="H32">
-        <v>9.279152640000001</v>
+        <v>95.44763468659447</v>
       </c>
       <c r="I32">
-        <v>10.09908864</v>
+        <v>91.35977537842722</v>
       </c>
       <c r="J32">
-        <v>11.226816</v>
+        <v>63.19824402071779</v>
       </c>
       <c r="K32">
-        <v>11.98368</v>
+        <v>25.22421230638831</v>
       </c>
       <c r="L32">
-        <v>12.59926272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2064,34 +2049,34 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="D33">
-        <v>550.08</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>983.02</v>
+        <v>20.50648565960299</v>
       </c>
       <c r="F33">
-        <v>1530.69</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>2423.7130858904</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>2953.996843553848</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>3154.767539352481</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>3111.65728304112</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>3357.447655334815</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>3569.349709328375</v>
+        <v>28.59571903453992</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2099,37 +2084,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>126.62</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>259.57</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>1016.6853023352</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>2375.5198737528</v>
+        <v>1.825258661779144</v>
       </c>
       <c r="I34">
-        <v>4583.257863521763</v>
+        <v>1.825258661779145</v>
       </c>
       <c r="J34">
-        <v>7695.9509163588</v>
+        <v>2.862638230903593</v>
       </c>
       <c r="K34">
-        <v>10400.14914516338</v>
+        <v>1.374254097532555</v>
       </c>
       <c r="L34">
-        <v>12205.66894810676</v>
+        <v>1.825258661779144</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2137,37 +2122,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D35">
-        <v>170.8961693548387</v>
+        <v>16304.90697674419</v>
       </c>
       <c r="E35">
-        <v>143.7096536494254</v>
+        <v>14490.30381423875</v>
       </c>
       <c r="F35">
-        <v>136.8198913228601</v>
+        <v>16240.07177034972</v>
       </c>
       <c r="G35">
-        <v>110.8708752172515</v>
+        <v>14287.06968604584</v>
       </c>
       <c r="H35">
-        <v>56.14274415412022</v>
+        <v>15529.25625154568</v>
       </c>
       <c r="I35">
-        <v>76.03963739356104</v>
+        <v>15979.50207721628</v>
       </c>
       <c r="J35">
-        <v>49.85976696955031</v>
+        <v>15627.87869703556</v>
       </c>
       <c r="K35">
-        <v>2.766039480764765</v>
+        <v>15975.36440197499</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>16273.44025568533</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2178,34 +2163,34 @@
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>122.5454049510514</v>
       </c>
       <c r="E36">
-        <v>20.52995052134648</v>
+        <v>127.1084867608177</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>2253.020208950489</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>2253.02020895049</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>149.5079451655364</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>115.2508745369697</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>78.53205375394717</v>
       </c>
       <c r="K36">
-        <v>29.3538883672995</v>
+        <v>40.03850727312012</v>
       </c>
       <c r="L36">
-        <v>28.59455379758857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2213,37 +2198,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>26.74567697968584</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>21.17510416666667</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>10.98211694988078</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>7.058368055555556</v>
       </c>
       <c r="H37">
-        <v>1.538157374085485</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>2.757914309611021</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>2.258456343568481</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>1.749943344973625</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>1.82518428495246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2251,37 +2236,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D38">
-        <v>16304.90697674419</v>
+        <v>2.908172221624048</v>
       </c>
       <c r="E38">
-        <v>14504.96844181866</v>
+        <v>2.908172221624048</v>
       </c>
       <c r="F38">
-        <v>16229.49713308936</v>
+        <v>2.908172221624048</v>
       </c>
       <c r="G38">
-        <v>16088.24180909799</v>
+        <v>0.1880208333333333</v>
       </c>
       <c r="H38">
-        <v>15523.24305307681</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>15251.53239705872</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>15627.87869703556</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>15975.36440197499</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>16273.44025568533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2289,34 +2274,34 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="D39">
-        <v>142.0457188837003</v>
+        <v>6.962091076923075</v>
       </c>
       <c r="E39">
-        <v>127.1084867608177</v>
+        <v>5.221568307692307</v>
       </c>
       <c r="F39">
-        <v>2253.020208950489</v>
+        <v>1.83212923076923</v>
       </c>
       <c r="G39">
-        <v>144.6373338425824</v>
+        <v>1.740522769230768</v>
       </c>
       <c r="H39">
-        <v>149.5079451655364</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>115.2508745369696</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>78.53205375394717</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>40.03850727312012</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -2330,19 +2315,19 @@
         <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D40">
-        <v>27.62790420517433</v>
+        <v>33.76194769230769</v>
       </c>
       <c r="E40">
-        <v>21.17510416666666</v>
+        <v>25.32146076923077</v>
       </c>
       <c r="F40">
-        <v>11.24593524169526</v>
+        <v>8.884723076923079</v>
       </c>
       <c r="G40">
-        <v>7.058368055555556</v>
+        <v>8.44048692307692</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2365,22 +2350,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D41">
-        <v>2.551922221624047</v>
+        <v>1.216268923076923</v>
       </c>
       <c r="E41">
-        <v>2.551922221624047</v>
+        <v>0.9122016923076924</v>
       </c>
       <c r="F41">
-        <v>2.551922221624047</v>
+        <v>0.3200707692307692</v>
       </c>
       <c r="G41">
-        <v>0.1880208333333333</v>
+        <v>0.3040672307692307</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2403,22 +2388,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D42">
-        <v>6.962091076923075</v>
+        <v>32.30537950293986</v>
       </c>
       <c r="E42">
-        <v>5.221568307692307</v>
+        <v>32.30537950293986</v>
       </c>
       <c r="F42">
-        <v>1.832129230769231</v>
+        <v>18.15514483320112</v>
       </c>
       <c r="G42">
-        <v>1.740522769230769</v>
+        <v>32.30537950293986</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2444,19 +2429,19 @@
         <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="D43">
-        <v>33.76194769230769</v>
+        <v>14.95681909090909</v>
       </c>
       <c r="E43">
-        <v>25.32146076923077</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>8.884723076923077</v>
+        <v>5.620715454545455</v>
       </c>
       <c r="G43">
-        <v>8.44048692307692</v>
+        <v>3.284535334828645</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2482,31 +2467,31 @@
         <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="D44">
-        <v>1.216268923076923</v>
+        <v>11.55898545454546</v>
       </c>
       <c r="E44">
-        <v>0.9122016923076923</v>
+        <v>38.55096168563591</v>
       </c>
       <c r="F44">
-        <v>0.3200707692307692</v>
+        <v>0.2222881818181818</v>
       </c>
       <c r="G44">
-        <v>0.3040672307692306</v>
+        <v>3.590865055175358</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1.633246968800949</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>15.60293287480899</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>44.45302486184622</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>11.90475499079633</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -2517,28 +2502,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D45">
-        <v>31.832</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>31.832</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>31.832</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>31.832</v>
+        <v>0.1701831779703961</v>
       </c>
       <c r="H45">
-        <v>31.832</v>
+        <v>0.2578811003369919</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>5.510224943175763</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2555,37 +2540,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>5.23965</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>8.635037929585522</v>
       </c>
       <c r="F46">
-        <v>3.064401363636364</v>
+        <v>10.03472363636364</v>
       </c>
       <c r="G46">
-        <v>0.633521318181818</v>
+        <v>9.972734229065207</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>12.43559972736159</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>7.00023474923861</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>23.4831623249687</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>56.40000000000001</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2593,34 +2578,34 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D47">
-        <v>22.00653</v>
+        <v>1.813684210526316</v>
       </c>
       <c r="E47">
-        <v>16.60730884090909</v>
+        <v>2.5845</v>
       </c>
       <c r="F47">
-        <v>3.350200454545455</v>
+        <v>0.9068421052631579</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>0.8615</v>
       </c>
       <c r="H47">
-        <v>8.299354924618846</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>41.98077100000009</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>50.9193444621567</v>
+        <v>0</v>
       </c>
       <c r="K47">
-        <v>49.35106339778435</v>
+        <v>0</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -2634,34 +2619,34 @@
         <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>22.35415031423101</v>
       </c>
       <c r="E48">
-        <v>13.937469</v>
+        <v>34.49745432589496</v>
       </c>
       <c r="F48">
-        <v>3.064401363636364</v>
+        <v>24.43792595693791</v>
       </c>
       <c r="G48">
-        <v>10.45310174999999</v>
+        <v>31.71669116596022</v>
       </c>
       <c r="H48">
-        <v>4.345319824056021</v>
+        <v>14.94218558857133</v>
       </c>
       <c r="I48">
-        <v>0.8891540000000001</v>
+        <v>7.315736840065262</v>
       </c>
       <c r="J48">
-        <v>2.907344318326942</v>
+        <v>7.315736840065262</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>35.50895484278136</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>39.80121402455644</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2669,37 +2654,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C49" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="D49">
-        <v>9.748924545454546</v>
+        <v>1995.444665210524</v>
       </c>
       <c r="E49">
-        <v>14.70674488636364</v>
+        <v>2035.995752685427</v>
       </c>
       <c r="F49">
-        <v>6.398724090909091</v>
+        <v>2049.096442858387</v>
       </c>
       <c r="G49">
-        <v>3.99721784090909</v>
+        <v>1784.105691094214</v>
       </c>
       <c r="H49">
-        <v>7.949258066756507</v>
+        <v>1339.374127096744</v>
       </c>
       <c r="I49">
-        <v>20.64107499999999</v>
+        <v>1138.033071701027</v>
       </c>
       <c r="J49">
-        <v>13.99668369457406</v>
+        <v>305.8458260806833</v>
       </c>
       <c r="K49">
-        <v>21.04760163161485</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>28.34619862168366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2710,19 +2695,19 @@
         <v>38</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D50">
-        <v>1.813684210526316</v>
+        <v>41.26569091632824</v>
       </c>
       <c r="E50">
-        <v>2.584499999999999</v>
+        <v>49.18060989271994</v>
       </c>
       <c r="F50">
-        <v>0.9068421052631581</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>0.8615</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -2731,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>89.4497865736474</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -2745,37 +2730,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="D51">
-        <v>173.9402630742638</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>178.22226</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>178.5526622222221</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>224.796927674693</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>234.9591874355492</v>
+        <v>17.90537618294878</v>
       </c>
       <c r="I51">
-        <v>245.505538875241</v>
+        <v>17.90537618294878</v>
       </c>
       <c r="J51">
-        <v>291.3851400336694</v>
+        <v>17.90537618294878</v>
       </c>
       <c r="K51">
-        <v>220.6234925438025</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>234.5948872851767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2786,34 +2771,34 @@
         <v>39</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="D52">
-        <v>53.62080340332901</v>
+        <v>16904.1806400318</v>
       </c>
       <c r="E52">
-        <v>60.41049052631578</v>
+        <v>14816.66777976546</v>
       </c>
       <c r="F52">
-        <v>90.12379368421053</v>
+        <v>10890.3410952097</v>
       </c>
       <c r="G52">
-        <v>113.0644632645634</v>
+        <v>21455.88372093023</v>
       </c>
       <c r="H52">
-        <v>103.8337119932576</v>
+        <v>13711.8803486241</v>
       </c>
       <c r="I52">
-        <v>104.271743071623</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>66.53436797414867</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>138.1804266597597</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>124.2575252417971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2824,34 +2809,34 @@
         <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="D53">
-        <v>22.35415031423105</v>
+        <v>19.37985714285714</v>
       </c>
       <c r="E53">
-        <v>34.67594065684811</v>
+        <v>14.53489285714286</v>
       </c>
       <c r="F53">
-        <v>24.32300705286786</v>
+        <v>9.68992857142857</v>
       </c>
       <c r="G53">
-        <v>33.49665728283783</v>
+        <v>40.698</v>
       </c>
       <c r="H53">
-        <v>16.72215170544888</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>8.917216625989731</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>21.07673452788385</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>33.66892675319093</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>66.21466660226392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2862,28 +2847,28 @@
         <v>41</v>
       </c>
       <c r="C54" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D54">
-        <v>2015.586310137813</v>
+        <v>1.724375335775335</v>
       </c>
       <c r="E54">
-        <v>2066.041944742938</v>
+        <v>1.467392612942604</v>
       </c>
       <c r="F54">
-        <v>2049.073078811116</v>
+        <v>1.253937667887667</v>
       </c>
       <c r="G54">
-        <v>1839.085073414037</v>
+        <v>0.7447765262512641</v>
       </c>
       <c r="H54">
-        <v>1462.281186062517</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>838.2069954389756</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>842.3594413369989</v>
+        <v>0</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -2897,22 +2882,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C55" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D55">
-        <v>21.14563672099488</v>
+        <v>10.19116</v>
       </c>
       <c r="E55">
-        <v>19.14523762353732</v>
+        <v>10.19116</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>32.78670999999999</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>10.19116</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -2935,31 +2920,31 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C56" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>211.4928059999999</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>180.619436</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>147.347332</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>211.4928059999999</v>
       </c>
       <c r="H56">
-        <v>30.40128999001466</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>30.40128999001466</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>38.15565413721599</v>
+        <v>0</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -2976,22 +2961,22 @@
         <v>42</v>
       </c>
       <c r="C57" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D57">
-        <v>16904.1806400318</v>
+        <v>15.665034</v>
       </c>
       <c r="E57">
-        <v>14815.65550586365</v>
+        <v>13.48340400000001</v>
       </c>
       <c r="F57">
-        <v>11854.44603707017</v>
+        <v>12.728958</v>
       </c>
       <c r="G57">
-        <v>21455.88372093023</v>
+        <v>15.665034</v>
       </c>
       <c r="H57">
-        <v>18943.34229469034</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -3014,25 +2999,25 @@
         <v>43</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D58">
-        <v>19.37985714285714</v>
+        <v>66.026</v>
       </c>
       <c r="E58">
-        <v>14.53489285714286</v>
+        <v>66.026</v>
       </c>
       <c r="F58">
-        <v>9.689928571428483</v>
+        <v>61.60146666666667</v>
       </c>
       <c r="G58">
-        <v>40.698</v>
+        <v>66.026</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>66.026</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>66.026</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -3052,28 +3037,28 @@
         <v>44</v>
       </c>
       <c r="C59" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="D59">
-        <v>1.724375335775335</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>1.510920390720391</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>1.253937667887667</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>0.7447765262516693</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>18.90859824690349</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>89.58292287360925</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>177.1679228736092</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -3087,22 +3072,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C60" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="D60">
-        <v>40.34932999999999</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>34.72998</v>
+        <v>56.36402829131656</v>
       </c>
       <c r="F60">
-        <v>32.78671</v>
+        <v>143.9490282913166</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>14.3102963353892</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -3125,28 +3110,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C61" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D61">
-        <v>181.334636</v>
+        <v>143.9490282913166</v>
       </c>
       <c r="E61">
-        <v>156.080616</v>
+        <v>106.4935982469035</v>
       </c>
       <c r="F61">
-        <v>147.347332</v>
+        <v>33.21889458229269</v>
       </c>
       <c r="G61">
-        <v>6.66563469230769</v>
+        <v>80.32151527405534</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>107.1983230074817</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>87.58499999999999</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -3166,31 +3151,31 @@
         <v>45</v>
       </c>
       <c r="C62" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="D62">
-        <v>15.665034</v>
+        <v>0.2559717086834734</v>
       </c>
       <c r="E62">
-        <v>13.483404</v>
+        <v>1.92437346177996</v>
       </c>
       <c r="F62">
-        <v>12.728958</v>
+        <v>11.83907712639076</v>
       </c>
       <c r="G62">
-        <v>0.4710191538461537</v>
+        <v>11.83907712639076</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>154.1112183407113</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>174.0482849409435</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>368.7624670430674</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>368.7624670430674</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -3207,31 +3192,31 @@
         <v>114</v>
       </c>
       <c r="D63">
-        <v>66.026</v>
+        <v>9.427</v>
       </c>
       <c r="E63">
-        <v>66.026</v>
+        <v>9.427</v>
       </c>
       <c r="F63">
-        <v>20.14495416666666</v>
+        <v>9.427</v>
       </c>
       <c r="G63">
-        <v>66.026</v>
+        <v>4.889586416628297</v>
       </c>
       <c r="H63">
-        <v>66.026</v>
+        <v>0.1947015814467149</v>
       </c>
       <c r="I63">
-        <v>66.026</v>
+        <v>0.2639831805060916</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>0.3322723593951087</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>0.3985013069338333</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>0.4559705397882656</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3242,34 +3227,34 @@
         <v>47</v>
       </c>
       <c r="C64" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>178.8003714084677</v>
       </c>
       <c r="E64">
-        <v>3.313487133013557</v>
+        <v>498.2591758690002</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>768.7418753371331</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1114.370050033673</v>
       </c>
       <c r="H64">
-        <v>314.9294683505893</v>
+        <v>1332.713761802705</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1367.143184696055</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1408.528071260459</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>921.0911629797448</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>1307.703186401038</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3277,34 +3262,34 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C65" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>517.2279999999998</v>
       </c>
       <c r="E65">
-        <v>162.2287840487513</v>
+        <v>379.3709999999999</v>
       </c>
       <c r="F65">
-        <v>28.33334145676504</v>
+        <v>384.2320000000001</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>223.9064116165361</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>165.4340891307456</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>72.42879757475646</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -3315,31 +3300,31 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C66" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="D66">
-        <v>143.9692459383754</v>
+        <v>5840.831166993049</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>5251.523504764431</v>
       </c>
       <c r="F66">
-        <v>143.9692459383754</v>
+        <v>5281.813605525551</v>
       </c>
       <c r="G66">
-        <v>71.13132192627343</v>
+        <v>5358.542037986953</v>
       </c>
       <c r="H66">
-        <v>72.1914334234128</v>
+        <v>5198.292304361852</v>
       </c>
       <c r="I66">
-        <v>89.62887898417455</v>
+        <v>4726.988087407253</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1661.11980659572</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -3353,28 +3338,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C67" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>41.78384574640344</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>30.50678757427843</v>
       </c>
       <c r="F67">
-        <v>4.86533547846884</v>
+        <v>69.47480824213466</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>8.014403297976363</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>69.66546842112534</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>46.57978711922549</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3391,34 +3376,34 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C68" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D68">
-        <v>0.2357540616246499</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>1.448720240244215</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>11.83907712639076</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>11.83907712639076</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>11.83907712639076</v>
+        <v>78.54108619781466</v>
       </c>
       <c r="I68">
-        <v>361.1248589685489</v>
+        <v>78.54108619781466</v>
       </c>
       <c r="J68">
-        <v>565.7884999991995</v>
+        <v>75.24236057750645</v>
       </c>
       <c r="K68">
-        <v>767.6262645007805</v>
+        <v>0</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -3429,37 +3414,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C69" t="s">
         <v>123</v>
       </c>
       <c r="D69">
-        <v>9.427</v>
+        <v>39115.33105388199</v>
       </c>
       <c r="E69">
-        <v>9.427</v>
+        <v>24299.23234562519</v>
       </c>
       <c r="F69">
-        <v>9.423961829889786</v>
+        <v>19504.09302325581</v>
       </c>
       <c r="G69">
-        <v>4.851488197450214</v>
+        <v>20849.80020067175</v>
       </c>
       <c r="H69">
-        <v>0.6571559755364706</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>1.188669981696961</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>1.717748652260914</v>
+        <v>0</v>
       </c>
       <c r="K69">
-        <v>2.235863827608657</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>2.293333060463091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3467,37 +3452,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C70" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="D70">
-        <v>178.8003714084677</v>
+        <v>15.38006294117647</v>
       </c>
       <c r="E70">
-        <v>498.2591758690004</v>
+        <v>11.53504720588235</v>
       </c>
       <c r="F70">
-        <v>768.8729136691144</v>
+        <v>32.298</v>
       </c>
       <c r="G70">
-        <v>1226.248355778543</v>
+        <v>16.40738916666667</v>
       </c>
       <c r="H70">
-        <v>1226.248355778543</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>1226.248355778543</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>1017.965037479343</v>
+        <v>0</v>
       </c>
       <c r="K70">
-        <v>293.193939579773</v>
+        <v>0</v>
       </c>
       <c r="L70">
-        <v>794.8180926792406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3505,37 +3490,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C71" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="D71">
-        <v>3631.573333333334</v>
+        <v>74.81508835627973</v>
       </c>
       <c r="E71">
-        <v>3585.62134270592</v>
+        <v>54.49496193223444</v>
       </c>
       <c r="F71">
-        <v>3222.542541966259</v>
+        <v>157.167</v>
       </c>
       <c r="G71">
-        <v>3550.025586054503</v>
+        <v>82.2764822238962</v>
       </c>
       <c r="H71">
-        <v>3825.221072690523</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>4148.191294851066</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>4488.613971943667</v>
+        <v>0</v>
       </c>
       <c r="K71">
-        <v>5803.079143970363</v>
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>5987.267178919749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3543,37 +3528,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C72" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>45.78898999999999</v>
       </c>
       <c r="E72">
-        <v>35.93767533123437</v>
+        <v>63.32992999999998</v>
       </c>
       <c r="F72">
-        <v>142.9018023477542</v>
+        <v>60.37431424999999</v>
       </c>
       <c r="G72">
-        <v>445.3102434394802</v>
+        <v>1.583105190047294</v>
       </c>
       <c r="H72">
-        <v>748.4584001023061</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>988.0572561966792</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>757.3472513428076</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>763.9995490110457</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>1119.561468048414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3581,37 +3566,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C73" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="D73">
-        <v>517.2279999999998</v>
+        <v>576.8307300000002</v>
       </c>
       <c r="E73">
-        <v>379.3710000000001</v>
+        <v>395.0441762499999</v>
       </c>
       <c r="F73">
-        <v>384.232</v>
+        <v>284.11442</v>
       </c>
       <c r="G73">
-        <v>199.4216582132078</v>
+        <v>268.7164967766931</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
       <c r="I73">
-        <v>517.2279999999998</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>383.2967098577914</v>
+        <v>0</v>
       </c>
       <c r="K73">
-        <v>399.7382072708781</v>
+        <v>0</v>
       </c>
       <c r="L73">
-        <v>95.53931719656416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3622,28 +3607,28 @@
         <v>53</v>
       </c>
       <c r="C74" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="D74">
-        <v>5807.295395004863</v>
+        <v>19.25628</v>
       </c>
       <c r="E74">
-        <v>5251.270387779504</v>
+        <v>14.17651875</v>
       </c>
       <c r="F74">
-        <v>5277.016428510525</v>
+        <v>10.65429075</v>
       </c>
       <c r="G74">
-        <v>5253.443066349268</v>
+        <v>8.359781504125994</v>
       </c>
       <c r="H74">
-        <v>4859.841168238943</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>4023.385453766053</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>309.8601447845622</v>
+        <v>0</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -3657,31 +3642,31 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C75" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="D75">
-        <v>75.30513561051188</v>
+        <v>228.1456133856186</v>
       </c>
       <c r="E75">
-        <v>30.75990455920606</v>
+        <v>397.267</v>
       </c>
       <c r="F75">
-        <v>71.78553652741415</v>
+        <v>397.267</v>
       </c>
       <c r="G75">
-        <v>80.08301145586833</v>
+        <v>397.267</v>
       </c>
       <c r="H75">
-        <v>109.6218633960568</v>
+        <v>186.4415206345662</v>
       </c>
       <c r="I75">
-        <v>60.27735021115932</v>
+        <v>0</v>
       </c>
       <c r="J75">
-        <v>40.89677957281059</v>
+        <v>0</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -3695,13 +3680,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C76" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>62.33463157894741</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3710,16 +3695,16 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>108.3719680480249</v>
       </c>
       <c r="H76">
-        <v>290.0306507833112</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>240.6389340676184</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>247.2891399096168</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -3733,31 +3718,31 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C77" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>428.0943002820254</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>341.534787427492</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>460.6230389475028</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77">
-        <v>144.095717326529</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>148.112122424044</v>
+        <v>0</v>
       </c>
       <c r="J77">
-        <v>15.88794430887055</v>
+        <v>0</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -3771,31 +3756,31 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C78" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="D78">
-        <v>40021.62680144052</v>
+        <v>872.4050456523876</v>
       </c>
       <c r="E78">
-        <v>24299.23234562519</v>
+        <v>862.800212572508</v>
       </c>
       <c r="F78">
-        <v>21735.83932595448</v>
+        <v>707.9599610524972</v>
       </c>
       <c r="G78">
-        <v>32451.20430001937</v>
+        <v>1255.280031951975</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1046.949756425813</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>761.751698142519</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>1116.362860090383</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -3812,25 +3797,25 @@
         <v>55</v>
       </c>
       <c r="C79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D79">
-        <v>15.38006294117647</v>
+        <v>0.8180224866395932</v>
       </c>
       <c r="E79">
-        <v>11.53504720588235</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>32.00732460784333</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>4.014592941175692</v>
+        <v>0</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>33.26177505682423</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -3850,28 +3835,28 @@
         <v>56</v>
       </c>
       <c r="C80" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="D80">
-        <v>74.81508835627973</v>
+        <v>523.97</v>
       </c>
       <c r="E80">
-        <v>54.4949619322344</v>
+        <v>523.97</v>
       </c>
       <c r="F80">
-        <v>86.74714761165028</v>
+        <v>523.97</v>
       </c>
       <c r="G80">
-        <v>24.4292373107448</v>
+        <v>523.97</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>613.4756246907214</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>613.4756246907214</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>613.4756246907214</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -3888,34 +3873,34 @@
         <v>57</v>
       </c>
       <c r="C81" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D81">
-        <v>45.78898999999999</v>
+        <v>43.61390455624548</v>
       </c>
       <c r="E81">
-        <v>80.33360624999999</v>
+        <v>43.61390455624548</v>
       </c>
       <c r="F81">
-        <v>60.37431424999999</v>
+        <v>34.25901207732596</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>16.21479140513649</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1.745323646548612</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>2.365632742881152</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>3.133040774495054</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>3.874834832925195</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>4.060456702465739</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3923,37 +3908,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D82">
-        <v>576.8307300000002</v>
+        <v>82.60509544375452</v>
       </c>
       <c r="E82">
-        <v>378.0405</v>
+        <v>111.9570954437545</v>
       </c>
       <c r="F82">
-        <v>284.11442</v>
+        <v>134.813987922674</v>
       </c>
       <c r="G82">
-        <v>43.0183247632784</v>
+        <v>134.813987922674</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>203.5121220151531</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>312.637868910766</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>479.2963471860675</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>788.4715197210711</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>342.3498774263065</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3961,28 +3946,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C83" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D83">
-        <v>19.25628</v>
+        <v>949.6909999999999</v>
       </c>
       <c r="E83">
-        <v>14.17651875</v>
+        <v>866.5870000000001</v>
       </c>
       <c r="F83">
-        <v>10.65429075</v>
+        <v>847.413</v>
       </c>
       <c r="G83">
-        <v>1.330463652472528</v>
+        <v>847.413</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>508.0608862395455</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>135.0707585846722</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -3999,37 +3984,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C84" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D84">
-        <v>189.1748962406016</v>
+        <v>83156.49994764967</v>
       </c>
       <c r="E84">
-        <v>397.267</v>
+        <v>70720.61381623767</v>
       </c>
       <c r="F84">
-        <v>372.012436764464</v>
+        <v>44609.88836412704</v>
       </c>
       <c r="G84">
-        <v>397.267</v>
+        <v>51372.70632080058</v>
       </c>
       <c r="H84">
-        <v>352.7797627786588</v>
+        <v>28540.33049327404</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>23061.46706808271</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>3378.065179173498</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>246.8836476098039</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>61.5429265354793</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4037,37 +4022,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C85" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="D85">
-        <v>332.3775955890625</v>
+        <v>361.5499997723899</v>
       </c>
       <c r="E85">
-        <v>307.8875409342937</v>
+        <v>307.4809296358159</v>
       </c>
       <c r="F85">
-        <v>257.3711506736209</v>
+        <v>2106.216323420692</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>223.359592699133</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1902.688699551603</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1537.431137872181</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>225.2043452782332</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>16.45890984065359</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>4.102861769031955</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4075,37 +4060,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C86" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D86">
-        <v>1031.274404410937</v>
+        <v>6869.449995675407</v>
       </c>
       <c r="E86">
-        <v>896.4474590657063</v>
+        <v>5842.137663080503</v>
       </c>
       <c r="F86">
-        <v>911.211849326379</v>
+        <v>8373.641406258557</v>
       </c>
       <c r="G86">
-        <v>1166.602464285714</v>
+        <v>4243.832261283526</v>
       </c>
       <c r="H86">
-        <v>432.1991785658008</v>
+        <v>5456.767591166863</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>4409.236470878707</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>645.8690657036125</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>47.20291124111973</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>11.76669790363881</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4113,37 +4098,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C87" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D87">
-        <v>523.97</v>
+        <v>193358.5871330282</v>
       </c>
       <c r="E87">
-        <v>523.97</v>
+        <v>204516.9717943329</v>
       </c>
       <c r="F87">
-        <v>523.97</v>
+        <v>201160.5025564647</v>
       </c>
       <c r="G87">
-        <v>523.97</v>
+        <v>206748.866861733</v>
       </c>
       <c r="H87">
-        <v>844.9190342530525</v>
+        <v>164070.1266314401</v>
       </c>
       <c r="I87">
-        <v>965.9844276189866</v>
+        <v>103908.3328136983</v>
       </c>
       <c r="J87">
-        <v>1534.407787665356</v>
+        <v>68275.06602572781</v>
       </c>
       <c r="K87">
-        <v>410.2265961022023</v>
+        <v>13786.28262318673</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>2277.886981433789</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4154,34 +4139,34 @@
         <v>61</v>
       </c>
       <c r="C88" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D88">
-        <v>43.63531886113615</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>43.63531886113615</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>34.28268977497195</v>
+        <v>3442.866393191017</v>
       </c>
       <c r="G88">
-        <v>16.23620571002715</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>2.194651714657137</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>2.976318179391604</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>3.743726211005507</v>
+        <v>0</v>
       </c>
       <c r="K88">
-        <v>4.485520269435647</v>
+        <v>0</v>
       </c>
       <c r="L88">
-        <v>4.992091466678137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4189,37 +4174,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C89" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D89">
-        <v>82.58368113886385</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>111.9356811388638</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>134.790310225028</v>
+        <v>7012.999999999998</v>
       </c>
       <c r="G89">
-        <v>134.790310225028</v>
+        <v>19160.30242512919</v>
       </c>
       <c r="H89">
-        <v>138.8318722998447</v>
+        <v>26165.95440800995</v>
       </c>
       <c r="I89">
-        <v>282.1737154337164</v>
+        <v>28752.27800424531</v>
       </c>
       <c r="J89">
-        <v>499.3475335295199</v>
+        <v>14682.96056517367</v>
       </c>
       <c r="K89">
-        <v>584.4666940450351</v>
+        <v>2779.396173558048</v>
       </c>
       <c r="L89">
-        <v>356.1480396386066</v>
+        <v>11478.25014094511</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4227,37 +4212,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C90" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="D90">
-        <v>3662.696027768035</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>3475.268264090094</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>3627.126666666667</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>3110.130676947173</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>3488.538254247863</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>4630.432616012875</v>
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>6411.785762940176</v>
+        <v>0</v>
       </c>
       <c r="K90">
-        <v>6955.149379015807</v>
+        <v>11271.28705331147</v>
       </c>
       <c r="L90">
-        <v>7332.53583696639</v>
+        <v>31801.60250629687</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4265,37 +4250,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C91" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="D91">
-        <v>11.91639474607231</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>23.87217086201498</v>
+        <v>0</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>68.22782933107844</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>189.425381093099</v>
+        <v>14192.94394193423</v>
       </c>
       <c r="I91">
-        <v>178.6231721582056</v>
+        <v>15910.63460645681</v>
       </c>
       <c r="J91">
-        <v>971.5196242262069</v>
+        <v>17960.1781240045</v>
       </c>
       <c r="K91">
-        <v>1034.560817517806</v>
+        <v>17960.17812400449</v>
       </c>
       <c r="L91">
-        <v>634.8232276315759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4303,37 +4288,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C92" t="s">
         <v>136</v>
       </c>
       <c r="D92">
-        <v>949.6909999999999</v>
+        <v>7459.947906976745</v>
       </c>
       <c r="E92">
-        <v>866.5870000000001</v>
+        <v>8087.043507027059</v>
       </c>
       <c r="F92">
-        <v>847.413</v>
+        <v>4769.284525849926</v>
       </c>
       <c r="G92">
-        <v>758.5650491207247</v>
+        <v>8428.673142576763</v>
       </c>
       <c r="H92">
-        <v>495.8461187098419</v>
+        <v>8625.014163091058</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>8704.992482561125</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>8430.976782247228</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>9125.711862047974</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>506.0983802645876</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4341,37 +4326,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C93" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D93">
-        <v>86695.19807429053</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>77804.53354079196</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>57222.26443366068</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>48244.79106489363</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>20327.3794396156</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>10030.69243565139</v>
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>5.990144901034993</v>
+        <v>0</v>
       </c>
       <c r="K93">
-        <v>29.66707339707204</v>
+        <v>0</v>
       </c>
       <c r="L93">
-        <v>85.19485285413616</v>
+        <v>9615.869225027169</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -4379,37 +4364,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D94">
-        <v>376.9356438012631</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>338.2805806121389</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1198.6192121699</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>209.7599611517115</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>96.3382911830123</v>
+        <v>249.3034747613665</v>
       </c>
       <c r="I94">
-        <v>668.7128290434262</v>
+        <v>559.096692149867</v>
       </c>
       <c r="J94">
-        <v>0.3993429934023329</v>
+        <v>1220.571203849674</v>
       </c>
       <c r="K94">
-        <v>1.977804893138137</v>
+        <v>896.0952868267118</v>
       </c>
       <c r="L94">
-        <v>5.679656856942411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4417,37 +4402,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C95" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="D95">
-        <v>7161.777232224001</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>6427.33103163064</v>
+        <v>0.334</v>
       </c>
       <c r="F95">
-        <v>10471.66782330925</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>3985.439261882518</v>
+        <v>0.105</v>
       </c>
       <c r="H95">
-        <v>3660.855064954468</v>
+        <v>0.06937853016302142</v>
       </c>
       <c r="I95">
-        <v>1917.817924803788</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>1.145285565984049</v>
+        <v>0</v>
       </c>
       <c r="K95">
-        <v>5.672195165226351</v>
+        <v>0</v>
       </c>
       <c r="L95">
-        <v>16.28882721236314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4455,37 +4440,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C96" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="D96">
-        <v>190437.1029866693</v>
+        <v>0.582</v>
       </c>
       <c r="E96">
-        <v>199900.4333110404</v>
+        <v>0.105</v>
       </c>
       <c r="F96">
-        <v>194646.7502529277</v>
+        <v>0.3689999999999999</v>
       </c>
       <c r="G96">
-        <v>209943.2247838002</v>
+        <v>0.03375706032556355</v>
       </c>
       <c r="H96">
-        <v>162687.8570826418</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>113396.9439239207</v>
+        <v>0</v>
       </c>
       <c r="J96">
-        <v>25870.90717571172</v>
+        <v>0</v>
       </c>
       <c r="K96">
-        <v>12164.65695808876</v>
+        <v>0</v>
       </c>
       <c r="L96">
-        <v>2195.22826421396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4493,37 +4478,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C97" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>71.47929534638689</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>153.7698579639726</v>
       </c>
       <c r="F97">
-        <v>7300.39880250047</v>
+        <v>153.7698579639726</v>
       </c>
       <c r="G97">
-        <v>7230.908434137681</v>
+        <v>153.7698579639726</v>
       </c>
       <c r="H97">
-        <v>26165.95440800995</v>
+        <v>6.942508241366317</v>
       </c>
       <c r="I97">
-        <v>14326.87800424528</v>
+        <v>1.884389288047028</v>
       </c>
       <c r="J97">
-        <v>70998.19562304535</v>
+        <v>11.10385369039843</v>
       </c>
       <c r="K97">
-        <v>5156.511461005693</v>
+        <v>25.93076420640105</v>
       </c>
       <c r="L97">
-        <v>0.999999999998445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4531,37 +4516,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C98" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>231.509</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>188.4371973256372</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>81.79912695211803</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>137.5780869725753</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>86.66154710639731</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>86.19804345676226</v>
       </c>
       <c r="J98">
-        <v>9691.053480272723</v>
+        <v>86.19804345676226</v>
       </c>
       <c r="K98">
-        <v>77468.3663192595</v>
+        <v>0</v>
       </c>
       <c r="L98">
-        <v>41708.33702006523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4572,31 +4557,31 @@
         <v>66</v>
       </c>
       <c r="C99" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>78.29765381649612</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>96.69685293076805</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>158.5983795893451</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>106.0922944805327</v>
       </c>
       <c r="H99">
-        <v>10362.38114248016</v>
+        <v>358.637905790592</v>
       </c>
       <c r="I99">
-        <v>18907.23589144028</v>
+        <v>591.2027189729818</v>
       </c>
       <c r="J99">
-        <v>18621.6526357043</v>
+        <v>1365.022408251164</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>221.5567571181343</v>
       </c>
       <c r="L99">
         <v>0</v>
@@ -4607,37 +4592,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C100" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="D100">
-        <v>7459.947906976745</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>8087.043507027061</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>4769.284525849926</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>8428.673142576763</v>
+        <v>53.04614724026638</v>
       </c>
       <c r="H100">
-        <v>8625.01416309106</v>
+        <v>330.3243869123872</v>
       </c>
       <c r="I100">
-        <v>8704.992482561125</v>
+        <v>971.8400859829836</v>
       </c>
       <c r="J100">
-        <v>3497.791047109383</v>
+        <v>1242.001733978597</v>
       </c>
       <c r="K100">
-        <v>2054.394874826064</v>
+        <v>2351.214565335303</v>
       </c>
       <c r="L100">
-        <v>506.0983802645877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -4645,10 +4630,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C101" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -4657,25 +4642,25 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>18.87567925213643</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>56.69067168234071</v>
       </c>
       <c r="J101">
-        <v>5482.54238922088</v>
+        <v>118.0882015644143</v>
       </c>
       <c r="K101">
-        <v>7806.700524339039</v>
+        <v>140.1685606257585</v>
       </c>
       <c r="L101">
-        <v>9615.869225027167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -4686,31 +4671,31 @@
         <v>67</v>
       </c>
       <c r="C102" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>0.08164598301763558</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>0.08164598301763558</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>0.09732201175702156</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>0.09732201175702154</v>
       </c>
       <c r="H102">
-        <v>249.3034747613665</v>
+        <v>0.605486610058785</v>
       </c>
       <c r="I102">
-        <v>559.096692149867</v>
+        <v>3.768778576094057</v>
       </c>
       <c r="J102">
-        <v>559.0966921498668</v>
+        <v>51.86152841280209</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>51.86152841280209</v>
       </c>
       <c r="L102">
         <v>0</v>
@@ -4724,13 +4709,13 @@
         <v>68</v>
       </c>
       <c r="C103" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>0.105</v>
+        <v>0</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -4739,19 +4724,19 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>0.06937853016278178</v>
+        <v>0.5861459010276536</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>0.5861459010276536</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>0.5861459010276536</v>
       </c>
       <c r="K103">
-        <v>0</v>
+        <v>32.61720351373854</v>
       </c>
       <c r="L103">
-        <v>0</v>
+        <v>2.323662359063565</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -4759,37 +4744,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C104" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="D104">
-        <v>0.5819999999999999</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>0.334</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>0.3689999999999999</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>0.1387570603255635</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>0.01513195832760689</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>3.156166137474722</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>21.49992561383166</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>21.48479365550406</v>
       </c>
       <c r="L104">
-        <v>0</v>
+        <v>21.48479365550406</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -4797,37 +4782,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C105" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="D105">
-        <v>243.4210754892431</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>228.0308044444444</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>250.57</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>392.4047007567589</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>923.8946770435693</v>
+        <v>0.008709741880417943</v>
       </c>
       <c r="I105">
-        <v>1287.19304635969</v>
+        <v>0.05411122032954858</v>
       </c>
       <c r="J105">
-        <v>1806.517092370773</v>
+        <v>0.3507104898530548</v>
       </c>
       <c r="K105">
-        <v>2236.522106055153</v>
+        <v>2.183045089366952</v>
       </c>
       <c r="L105">
-        <v>2752.59649317698</v>
+        <v>12.88092546823806</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -4835,37 +4820,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C106" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="D106">
-        <v>6.544244273348656</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>27.79608</v>
+        <v>0</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106">
-        <v>109.2117258417817</v>
+        <v>0.2195780176643772</v>
       </c>
       <c r="H106">
-        <v>131.2865759721425</v>
+        <v>2.296365711102829</v>
       </c>
       <c r="I106">
-        <v>388.5563570109387</v>
+        <v>11.73004611093006</v>
       </c>
       <c r="J106">
-        <v>319.5319357697351</v>
+        <v>80.54890712129567</v>
       </c>
       <c r="K106">
-        <v>445.3152087965639</v>
+        <v>453.1249431839202</v>
       </c>
       <c r="L106">
-        <v>424.495136461057</v>
+        <v>446.3313152905679</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -4873,37 +4858,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C107" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="D107">
-        <v>68.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>68.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>68.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="G107">
-        <v>68.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>6.639764936336924</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>1.884389288047029</v>
+        <v>0</v>
       </c>
       <c r="J107">
-        <v>11.10385369039843</v>
+        <v>0</v>
       </c>
       <c r="K107">
         <v>0</v>
       </c>
       <c r="L107">
-        <v>0</v>
+        <v>415.5613815748115</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -4911,37 +4896,37 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C108" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D108">
-        <v>231.509</v>
+        <v>2674.134674978955</v>
       </c>
       <c r="E108">
-        <v>164.5704738819575</v>
+        <v>3878.6634593996</v>
       </c>
       <c r="F108">
-        <v>82.87721134983103</v>
+        <v>2109.600477042338</v>
       </c>
       <c r="G108">
-        <v>52.45812791352595</v>
+        <v>1872.000790906013</v>
       </c>
       <c r="H108">
-        <v>0.4635036496350364</v>
+        <v>4705.79741179603</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>5250.485049792721</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>1424.924347251516</v>
       </c>
       <c r="K108">
         <v>0</v>
       </c>
       <c r="L108">
-        <v>0</v>
+        <v>7402.488372093024</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -4949,31 +4934,31 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C109" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="D109">
-        <v>54.51578278388349</v>
+        <v>2468.432007672881</v>
       </c>
       <c r="E109">
-        <v>118.2939693795259</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>158.597436936713</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>127.3236804719645</v>
+        <v>2366.491565862319</v>
       </c>
       <c r="H109">
-        <v>376.9124331453888</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>605.9158755491792</v>
+        <v>0</v>
       </c>
       <c r="J109">
-        <v>370.4963265727652</v>
+        <v>0</v>
       </c>
       <c r="K109">
         <v>0</v>
@@ -4987,10 +4972,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C110" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -5002,22 +4987,22 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <v>63.66184023598228</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>347.1561884233842</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>996.0260967931716</v>
+        <v>0</v>
       </c>
       <c r="J110">
-        <v>1216.555102179229</v>
+        <v>203.2274331820474</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>475.542107917297</v>
       </c>
       <c r="L110">
-        <v>0</v>
+        <v>746.3439233484618</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5025,37 +5010,37 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C111" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>1752.636036839715</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1857.8</v>
       </c>
       <c r="F111">
-        <v>0.5399999999999789</v>
+        <v>1772.368108473768</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>1857.8</v>
       </c>
       <c r="H111">
-        <v>19.83749648133624</v>
+        <v>1857.8</v>
       </c>
       <c r="I111">
-        <v>58.10152231293499</v>
+        <v>1857.8</v>
       </c>
       <c r="J111">
-        <v>71.88734694695439</v>
+        <v>1857.8</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>1646.770371340509</v>
       </c>
       <c r="L111">
-        <v>0</v>
+        <v>715.709614167992</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5063,37 +5048,37 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C112" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D112">
-        <v>0.08164598301763555</v>
+        <v>0</v>
       </c>
       <c r="E112">
-        <v>0.08164598301763555</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>0.09732201175702158</v>
+        <v>0</v>
       </c>
       <c r="G112">
-        <v>0.09732201175702158</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>0.6054866100587851</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>3.768778576094057</v>
+        <v>0</v>
       </c>
       <c r="J112">
-        <v>22.20770738079687</v>
+        <v>0</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>37.04345078595429</v>
       </c>
       <c r="L112">
-        <v>0</v>
+        <v>37.04345078595429</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5101,10 +5086,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C113" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -5113,25 +5098,25 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>0.01700220036809763</v>
+        <v>0</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
       <c r="H113">
-        <v>0.002077142229953807</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>0.002077142229953807</v>
+        <v>0</v>
       </c>
       <c r="J113">
-        <v>2.23056646506525</v>
+        <v>0.1387334643821726</v>
       </c>
       <c r="K113">
-        <v>0.0002069001894630678</v>
+        <v>0</v>
       </c>
       <c r="L113">
-        <v>2.228592772930027</v>
+        <v>180.8910115022147</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5139,10 +5124,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C114" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -5157,19 +5142,19 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>0.01680596895144444</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>0.01680596895144444</v>
+        <v>0</v>
       </c>
       <c r="J114">
-        <v>18.04731049007338</v>
+        <v>0</v>
       </c>
       <c r="K114">
-        <v>0.001674010623837548</v>
+        <v>0</v>
       </c>
       <c r="L114">
-        <v>18.03134152643386</v>
+        <v>203.3067598752969</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5177,37 +5162,37 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C115" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>3178.424932045381</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>3228.335660322087</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>3491.151784089623</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>2859.150980984311</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2281.608027820212</v>
       </c>
       <c r="I115">
-        <v>0.4604558063489915</v>
+        <v>1710.100417633708</v>
       </c>
       <c r="J115">
-        <v>0.4991727109285981</v>
+        <v>1197.56566888208</v>
       </c>
       <c r="K115">
-        <v>0.4991727109285981</v>
+        <v>877.2785100722955</v>
       </c>
       <c r="L115">
-        <v>0.714025386171199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5215,10 +5200,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C116" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -5236,16 +5221,16 @@
         <v>0</v>
       </c>
       <c r="I116">
-        <v>3.725506069550932</v>
+        <v>0</v>
       </c>
       <c r="J116">
-        <v>4.038761024785931</v>
+        <v>0</v>
       </c>
       <c r="K116">
-        <v>4.038761024785931</v>
+        <v>0</v>
       </c>
       <c r="L116">
-        <v>5.777114488112426</v>
+        <v>1146.370841799052</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5253,10 +5238,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C117" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -5271,19 +5256,19 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>54.24513482741128</v>
       </c>
       <c r="I117">
-        <v>0.04539551323453141</v>
+        <v>54.24513482741128</v>
       </c>
       <c r="J117">
-        <v>0.04539531906841613</v>
+        <v>54.24513482741128</v>
       </c>
       <c r="K117">
-        <v>0.04539531906841614</v>
+        <v>47.79549000393875</v>
       </c>
       <c r="L117">
-        <v>10.76292095628937</v>
+        <v>73.17260692334376</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5291,37 +5276,37 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C118" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>220.2</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>220.2</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>220.2</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>222.1198162428377</v>
       </c>
       <c r="H118">
-        <v>0.008712017938791828</v>
+        <v>316.6227508733306</v>
       </c>
       <c r="I118">
-        <v>0.008715707095018696</v>
+        <v>421.5242980777733</v>
       </c>
       <c r="J118">
-        <v>0.3053151707928396</v>
+        <v>443.3967152973962</v>
       </c>
       <c r="K118">
-        <v>2.137649770332811</v>
+        <v>444.944598559625</v>
       </c>
       <c r="L118">
-        <v>2.128933869071644</v>
+        <v>350.0815712850486</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5329,37 +5314,37 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C119" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>640.4039317201214</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>567.5204770677034</v>
       </c>
       <c r="G119">
-        <v>0.2195780176643773</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>2.296365711102826</v>
+        <v>783.1062463885925</v>
       </c>
       <c r="I119">
-        <v>16.14950691156173</v>
+        <v>827.7569522119653</v>
       </c>
       <c r="J119">
-        <v>95.60050287543318</v>
+        <v>887.0612494637597</v>
       </c>
       <c r="K119">
-        <v>473.1336110810063</v>
+        <v>23.06433713400476</v>
       </c>
       <c r="L119">
-        <v>866.8087012685443</v>
+        <v>740.0218180288622</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5367,37 +5352,37 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C120" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="D120">
-        <v>3523.002813852795</v>
+        <v>680.6985232132699</v>
       </c>
       <c r="E120">
-        <v>3878.6634593996</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>2109.600477042338</v>
+        <v>0</v>
       </c>
       <c r="G120">
-        <v>1872.000790906014</v>
+        <v>732.0762418572448</v>
       </c>
       <c r="H120">
-        <v>4705.797412001865</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>4447.145031494099</v>
+        <v>0</v>
       </c>
       <c r="J120">
-        <v>1427.932980352006</v>
+        <v>0</v>
       </c>
       <c r="K120">
-        <v>7402.488372093024</v>
+        <v>827.6520163052149</v>
       </c>
       <c r="L120">
-        <v>7402.488372093024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -5405,37 +5390,37 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C121" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D121">
-        <v>3252.00259740258</v>
+        <v>357.4100000000001</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>306.3050915076228</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>255.1366251255762</v>
       </c>
       <c r="G121">
-        <v>2366.491565862319</v>
+        <v>308.0500143492361</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>349.1520609537639</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>342.6243392514357</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <v>379.3068976112505</v>
       </c>
       <c r="K121">
-        <v>0</v>
+        <v>269.3893244413276</v>
       </c>
       <c r="L121">
-        <v>0</v>
+        <v>148.1535178186782</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5443,37 +5428,37 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C122" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>80.8555555555531</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>63.5255030864195</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>50.71481481481426</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>104.3764037476458</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>53.47996266709659</v>
       </c>
       <c r="I122">
-        <v>34.54362077660111</v>
+        <v>34.38563716258651</v>
       </c>
       <c r="J122">
-        <v>203.2274331820473</v>
+        <v>0</v>
       </c>
       <c r="K122">
-        <v>475.542107917297</v>
+        <v>0</v>
       </c>
       <c r="L122">
-        <v>746.3439233484619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5481,37 +5466,37 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C123" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="D123">
-        <v>1685.967239163547</v>
+        <v>175.2289212311769</v>
       </c>
       <c r="E123">
-        <v>1857.8</v>
+        <v>153.4014736858363</v>
       </c>
       <c r="F123">
-        <v>1772.368108473761</v>
+        <v>128.7570829919062</v>
       </c>
       <c r="G123">
-        <v>1857.8</v>
+        <v>108.3241126759468</v>
       </c>
       <c r="H123">
-        <v>1857.8</v>
+        <v>69.3187921798752</v>
       </c>
       <c r="I123">
-        <v>1857.8</v>
+        <v>58.85713291362876</v>
       </c>
       <c r="J123">
-        <v>1857.8</v>
+        <v>35.65479387825046</v>
       </c>
       <c r="K123">
-        <v>1204.701029117302</v>
+        <v>35.13775133489406</v>
       </c>
       <c r="L123">
-        <v>770.3579401038537</v>
+        <v>32.27130676372845</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5519,10 +5504,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C124" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -5531,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>0.1558802970586208</v>
+        <v>0</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -5549,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="L124">
-        <v>0</v>
+        <v>0.9507052818220687</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5557,16 +5542,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C125" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>41.68594321543012</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>391.8786207994796</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -5575,19 +5560,19 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>177.4408636573365</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>152.5180899172605</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>126.328282129297</v>
       </c>
       <c r="K125">
-        <v>34.10954859837513</v>
+        <v>127.8428891886298</v>
       </c>
       <c r="L125">
-        <v>26.93572005808831</v>
+        <v>127.8124751954571</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5595,22 +5580,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C126" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>479.3883469774466</v>
       </c>
       <c r="E126">
         <v>0</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>449.4748697087121</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>326.8735722352504</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -5622,10 +5607,10 @@
         <v>0</v>
       </c>
       <c r="K126">
-        <v>275.9772568413987</v>
+        <v>0</v>
       </c>
       <c r="L126">
-        <v>217.934462288169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5633,28 +5618,28 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C127" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>623.2406582281039</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>549.9596905924604</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>466.9765603077898</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>258.2396419199683</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>103.896149850837</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>45.02213167484755</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -5663,7 +5648,7 @@
         <v>0</v>
       </c>
       <c r="L127">
-        <v>148.7632201949579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5671,34 +5656,34 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C128" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D128">
-        <v>3745.115733672914</v>
+        <v>0</v>
       </c>
       <c r="E128">
-        <v>3691.134902535612</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>3500.747525885573</v>
+        <v>60.68056998349811</v>
       </c>
       <c r="G128">
-        <v>2584.311588840237</v>
+        <v>33.55656363931791</v>
       </c>
       <c r="H128">
-        <v>2027.022210816168</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>1487.098176028137</v>
+        <v>0</v>
       </c>
       <c r="J128">
-        <v>1139.063018117823</v>
+        <v>0</v>
       </c>
       <c r="K128">
-        <v>95.49033930328149</v>
+        <v>0</v>
       </c>
       <c r="L128">
         <v>0</v>
@@ -5709,16 +5694,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C129" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>80.98607423303045</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>71.46368860805983</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -5730,16 +5715,16 @@
         <v>0</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>5.850333494471714</v>
       </c>
       <c r="J129">
         <v>0</v>
       </c>
       <c r="K129">
-        <v>1013.366866075639</v>
+        <v>0</v>
       </c>
       <c r="L129">
-        <v>1138.448665964153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -5747,37 +5732,37 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C130" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>92.07276209201211</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>46.6704216644445</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>55.6202308373899</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>173.4792969101763</v>
       </c>
       <c r="H130">
-        <v>53.93620327563155</v>
+        <v>117.32</v>
       </c>
       <c r="I130">
-        <v>53.93620327563154</v>
+        <v>117.32</v>
       </c>
       <c r="J130">
-        <v>51.59518897397806</v>
+        <v>115.3313253012048</v>
       </c>
       <c r="K130">
-        <v>60.41225547758621</v>
+        <v>100.1620591463841</v>
       </c>
       <c r="L130">
-        <v>72.66693612537148</v>
+        <v>51.78725429028584</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -5785,37 +5770,37 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C131" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="D131">
-        <v>220.2</v>
+        <v>0</v>
       </c>
       <c r="E131">
-        <v>220.2</v>
+        <v>36.66961702206352</v>
       </c>
       <c r="F131">
-        <v>220.2</v>
+        <v>43.70160994366348</v>
       </c>
       <c r="G131">
-        <v>255.4453519639183</v>
+        <v>0</v>
       </c>
       <c r="H131">
-        <v>317.6785270663599</v>
+        <v>92.17999999999998</v>
       </c>
       <c r="I131">
-        <v>442.3001332654926</v>
+        <v>92.17999999999998</v>
       </c>
       <c r="J131">
-        <v>438.8679113150894</v>
+        <v>90.61746987951804</v>
       </c>
       <c r="K131">
-        <v>358.9089173592027</v>
+        <v>78.69876075787316</v>
       </c>
       <c r="L131">
-        <v>291.1064416422146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -5823,28 +5808,28 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C132" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="D132">
-        <v>369.0759222803849</v>
+        <v>0</v>
       </c>
       <c r="E132">
-        <v>639.5425901398037</v>
+        <v>59.53332248953484</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>212.658157106295</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>178.2218388885222</v>
       </c>
       <c r="H132">
-        <v>959.3963076167171</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>969.314997957646</v>
+        <v>10.71852315445315</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -5861,37 +5846,37 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C133" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="D133">
-        <v>303.4999222803849</v>
+        <v>90.77</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>90.77</v>
       </c>
       <c r="F133">
-        <v>603.5489762499089</v>
+        <v>0</v>
       </c>
       <c r="G133">
-        <v>838.5226786225724</v>
+        <v>0</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>36.46118200793937</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>18.09085655402421</v>
       </c>
       <c r="J133">
-        <v>877.8461973083429</v>
+        <v>31.15810632012758</v>
       </c>
       <c r="K133">
-        <v>789.9196092454945</v>
+        <v>15.57905316013844</v>
       </c>
       <c r="L133">
-        <v>742.7561137727921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -5899,37 +5884,37 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C134" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="D134">
-        <v>368.3821312195203</v>
+        <v>426.52</v>
       </c>
       <c r="E134">
-        <v>307.3550183031048</v>
+        <v>383.1151009654343</v>
       </c>
       <c r="F134">
-        <v>245.5141046472595</v>
+        <v>324.7590524416734</v>
       </c>
       <c r="G134">
-        <v>314.2816086761091</v>
+        <v>133.3948164698633</v>
       </c>
       <c r="H134">
-        <v>288.3135567651012</v>
+        <v>38.9376133093572</v>
       </c>
       <c r="I134">
-        <v>227.2083256466333</v>
+        <v>3.066115644835044</v>
       </c>
       <c r="J134">
-        <v>117.2502383860177</v>
+        <v>0</v>
       </c>
       <c r="K134">
-        <v>125.8006683552042</v>
+        <v>0</v>
       </c>
       <c r="L134">
-        <v>152.1889773601918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -5937,37 +5922,37 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C135" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="D135">
-        <v>76.99390946502126</v>
+        <v>0</v>
       </c>
       <c r="E135">
-        <v>63.39351851852084</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>42.72118823523414</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>17.55370370370366</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>9.219753086419873</v>
+        <v>140.0934980592806</v>
       </c>
       <c r="I135">
-        <v>0.8858024691358432</v>
+        <v>0</v>
       </c>
       <c r="J135">
         <v>0</v>
       </c>
       <c r="K135">
-        <v>0</v>
+        <v>119.6076714767827</v>
       </c>
       <c r="L135">
-        <v>0</v>
+        <v>38.74193012816937</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -5978,34 +5963,34 @@
         <v>90</v>
       </c>
       <c r="C136" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="D136">
-        <v>176.2411147546885</v>
+        <v>0</v>
       </c>
       <c r="E136">
-        <v>153.3448730385706</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>110.3447308675974</v>
+        <v>30.13756693560387</v>
       </c>
       <c r="G136">
-        <v>49.6808032677023</v>
+        <v>14.54127536148236</v>
       </c>
       <c r="H136">
-        <v>21.08804658492268</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>14.66867149064397</v>
+        <v>0</v>
       </c>
       <c r="J136">
-        <v>25.5134948327291</v>
+        <v>0</v>
       </c>
       <c r="K136">
-        <v>31.37116260654557</v>
+        <v>0</v>
       </c>
       <c r="L136">
-        <v>33.42368442029945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6016,34 +6001,34 @@
         <v>90</v>
       </c>
       <c r="C137" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>886.5427268542666</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>964.3446048651894</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>1143.507084965895</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>633.9244424511537</v>
       </c>
       <c r="H137">
-        <v>0.8786686077051107</v>
+        <v>537.5666460481427</v>
       </c>
       <c r="I137">
-        <v>0.6218342890485348</v>
+        <v>735.3974826895684</v>
       </c>
       <c r="J137">
-        <v>1.063062284697046</v>
+        <v>344.3974822720231</v>
       </c>
       <c r="K137">
-        <v>1.307131775272732</v>
+        <v>0</v>
       </c>
       <c r="L137">
-        <v>0.7899088954037378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6051,37 +6036,37 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C138" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="D138">
-        <v>32.76267853797719</v>
+        <v>21.66035</v>
       </c>
       <c r="E138">
-        <v>393.7874361068956</v>
+        <v>39.41496207041448</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>43.67374305662841</v>
       </c>
       <c r="G138">
-        <v>394.8768941033676</v>
+        <v>61.4272657709348</v>
       </c>
       <c r="H138">
-        <v>174.3030467323829</v>
+        <v>61.16440027263842</v>
       </c>
       <c r="I138">
-        <v>147.1221263824804</v>
+        <v>57.99976525076141</v>
       </c>
       <c r="J138">
-        <v>126.251528926178</v>
+        <v>32.9168376750313</v>
       </c>
       <c r="K138">
-        <v>127.7255476522445</v>
+        <v>0</v>
       </c>
       <c r="L138">
-        <v>128.084953249759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6092,16 +6077,16 @@
         <v>91</v>
       </c>
       <c r="C139" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="D139">
-        <v>376.7708031867377</v>
+        <v>1595.408930061753</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1595.408930061753</v>
       </c>
       <c r="F139">
-        <v>428.2394096531191</v>
+        <v>766.6332336346785</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -6116,10 +6101,10 @@
         <v>0</v>
       </c>
       <c r="K139">
-        <v>0</v>
+        <v>243.3704842909765</v>
       </c>
       <c r="L139">
-        <v>0</v>
+        <v>971.3765235431697</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6130,34 +6115,34 @@
         <v>92</v>
       </c>
       <c r="C140" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D140">
-        <v>700.2899744845846</v>
+        <v>6.905882034065938</v>
       </c>
       <c r="E140">
-        <v>519.3504839713153</v>
+        <v>10.06239195272875</v>
       </c>
       <c r="F140">
-        <v>485.7699424569897</v>
+        <v>13.41650773373657</v>
       </c>
       <c r="G140">
-        <v>369.1686374325402</v>
+        <v>22.98670231912716</v>
       </c>
       <c r="H140">
-        <v>91.94809261798778</v>
+        <v>32.12478598890411</v>
       </c>
       <c r="I140">
-        <v>50.87246516931926</v>
+        <v>35.84777211524334</v>
       </c>
       <c r="J140">
-        <v>0</v>
+        <v>36.05426602140292</v>
       </c>
       <c r="K140">
-        <v>0</v>
+        <v>36.68619410428681</v>
       </c>
       <c r="L140">
-        <v>0</v>
+        <v>38.11568153160242</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -6165,31 +6150,31 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C141" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>0.9427083333333335</v>
       </c>
       <c r="E141">
-        <v>67.48622108101834</v>
+        <v>11.741</v>
       </c>
       <c r="F141">
-        <v>63.1226478898913</v>
+        <v>0.6284722222222222</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>11.741</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>11.741</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>11.741</v>
       </c>
       <c r="J141">
-        <v>0</v>
+        <v>8.995773035400539</v>
       </c>
       <c r="K141">
         <v>0</v>
@@ -6203,37 +6188,37 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C142" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>996.3744147661358</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>986.579545674105</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>953.129074043062</v>
       </c>
       <c r="G142">
-        <v>47.97106588106453</v>
+        <v>1006.317610940497</v>
       </c>
       <c r="H142">
-        <v>11.94805723284587</v>
+        <v>941.2161457641107</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>942.7347057507445</v>
       </c>
       <c r="J142">
-        <v>0</v>
+        <v>918.1786515206338</v>
       </c>
       <c r="K142">
-        <v>0</v>
+        <v>1057.628727882941</v>
       </c>
       <c r="L142">
-        <v>0</v>
+        <v>1515.782406812283</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6241,37 +6226,37 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C143" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="D143">
-        <v>50.34419520420089</v>
+        <v>0</v>
       </c>
       <c r="E143">
-        <v>41.50407423606317</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>45.82329848255985</v>
+        <v>0</v>
       </c>
       <c r="G143">
-        <v>98.92173569223645</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>117.32</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>136.9411483010161</v>
+        <v>0</v>
       </c>
       <c r="J143">
-        <v>244.840066730995</v>
+        <v>0</v>
       </c>
       <c r="K143">
-        <v>70.53388356803458</v>
+        <v>0</v>
       </c>
       <c r="L143">
-        <v>76.85318775759139</v>
+        <v>512.0370876355698</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -6279,10 +6264,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C144" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -6291,481 +6276,25 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>36.00402023629702</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>77.7242209010429</v>
+        <v>200.4436196715045</v>
       </c>
       <c r="H144">
-        <v>92.17999999999998</v>
+        <v>646.8182902993503</v>
       </c>
       <c r="I144">
-        <v>107.5966165222269</v>
+        <v>793.386046011751</v>
       </c>
       <c r="J144">
-        <v>0</v>
+        <v>803.5714608863273</v>
       </c>
       <c r="K144">
-        <v>55.41947994631288</v>
+        <v>831.6284727096548</v>
       </c>
       <c r="L144">
-        <v>60.14712459630245</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="B145" t="s">
-        <v>94</v>
-      </c>
-      <c r="C145" t="s">
-        <v>153</v>
-      </c>
-      <c r="D145">
-        <v>90.77</v>
-      </c>
-      <c r="E145">
-        <v>90.77</v>
-      </c>
-      <c r="F145">
-        <v>171.8255686483554</v>
-      </c>
-      <c r="G145">
-        <v>152.6185506940875</v>
-      </c>
-      <c r="H145">
-        <v>15.48960370821209</v>
-      </c>
-      <c r="I145">
-        <v>0.7390182642412463</v>
-      </c>
-      <c r="J145">
-        <v>0</v>
-      </c>
-      <c r="K145">
-        <v>0</v>
-      </c>
-      <c r="L145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
-      <c r="B146" t="s">
-        <v>95</v>
-      </c>
-      <c r="C146" t="s">
-        <v>113</v>
-      </c>
-      <c r="D146">
-        <v>243.8447541621668</v>
-      </c>
-      <c r="E146">
-        <v>239.4582681469614</v>
-      </c>
-      <c r="F146">
-        <v>308.9614785572816</v>
-      </c>
-      <c r="G146">
-        <v>129.5267190419201</v>
-      </c>
-      <c r="H146">
-        <v>37.4793523357954</v>
-      </c>
-      <c r="I146">
-        <v>1.467078189300412</v>
-      </c>
-      <c r="J146">
-        <v>0</v>
-      </c>
-      <c r="K146">
-        <v>0</v>
-      </c>
-      <c r="L146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="B147" t="s">
-        <v>96</v>
-      </c>
-      <c r="C147" t="s">
-        <v>118</v>
-      </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-      <c r="E147">
-        <v>0</v>
-      </c>
-      <c r="F147">
-        <v>0</v>
-      </c>
-      <c r="G147">
-        <v>0</v>
-      </c>
-      <c r="H147">
-        <v>0</v>
-      </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
-      <c r="J147">
-        <v>0</v>
-      </c>
-      <c r="K147">
-        <v>0</v>
-      </c>
-      <c r="L147">
-        <v>32.06438624955771</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="B148" t="s">
-        <v>96</v>
-      </c>
-      <c r="C148" t="s">
-        <v>119</v>
-      </c>
-      <c r="D148">
-        <v>846.4746596219976</v>
-      </c>
-      <c r="E148">
-        <v>940.2787448863636</v>
-      </c>
-      <c r="F148">
-        <v>1154.798270142238</v>
-      </c>
-      <c r="G148">
-        <v>646.3326632117073</v>
-      </c>
-      <c r="H148">
-        <v>682.3833947708608</v>
-      </c>
-      <c r="I148">
-        <v>726.4416275189092</v>
-      </c>
-      <c r="J148">
-        <v>161.95469045698</v>
-      </c>
-      <c r="K148">
-        <v>83.34286163968945</v>
-      </c>
-      <c r="L148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149" t="s">
-        <v>96</v>
-      </c>
-      <c r="C149" t="s">
-        <v>135</v>
-      </c>
-      <c r="D149">
-        <v>17.15107545454545</v>
-      </c>
-      <c r="E149">
-        <v>33.34325511363637</v>
-      </c>
-      <c r="F149">
-        <v>62.80127590909092</v>
-      </c>
-      <c r="G149">
-        <v>67.40278215909089</v>
-      </c>
-      <c r="H149">
-        <v>65.65074193324347</v>
-      </c>
-      <c r="I149">
-        <v>44.35892500000001</v>
-      </c>
-      <c r="J149">
-        <v>42.40331630542592</v>
-      </c>
-      <c r="K149">
-        <v>35.35239836838515</v>
-      </c>
-      <c r="L149">
-        <v>28.05380137831633</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="B150" t="s">
-        <v>97</v>
-      </c>
-      <c r="C150" t="s">
-        <v>138</v>
-      </c>
-      <c r="D150">
-        <v>3031.514597314022</v>
-      </c>
-      <c r="E150">
-        <v>2578.145970335401</v>
-      </c>
-      <c r="F150">
-        <v>746.9775980639563</v>
-      </c>
-      <c r="G150">
-        <v>0</v>
-      </c>
-      <c r="H150">
-        <v>0</v>
-      </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
-      <c r="J150">
-        <v>0.003205965511590816</v>
-      </c>
-      <c r="K150">
-        <v>976.8424075492705</v>
-      </c>
-      <c r="L150">
-        <v>945.8002353541343</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="B151" t="s">
-        <v>98</v>
-      </c>
-      <c r="C151" t="s">
-        <v>107</v>
-      </c>
-      <c r="D151">
-        <v>12.70837079597808</v>
-      </c>
-      <c r="E151">
-        <v>13.66605880094403</v>
-      </c>
-      <c r="F151">
-        <v>13.66605880094403</v>
-      </c>
-      <c r="G151">
-        <v>23.23625338633462</v>
-      </c>
-      <c r="H151">
-        <v>32.12478598890426</v>
-      </c>
-      <c r="I151">
-        <v>35.60666256173574</v>
-      </c>
-      <c r="J151">
-        <v>36.04489782077046</v>
-      </c>
-      <c r="K151">
-        <v>36.68619410429016</v>
-      </c>
-      <c r="L151">
-        <v>38.11568153160263</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152" t="s">
-        <v>99</v>
-      </c>
-      <c r="C152" t="s">
-        <v>123</v>
-      </c>
-      <c r="D152">
-        <v>0.9427083333333335</v>
-      </c>
-      <c r="E152">
-        <v>11.741</v>
-      </c>
-      <c r="F152">
-        <v>0.6284722222222222</v>
-      </c>
-      <c r="G152">
-        <v>11.741</v>
-      </c>
-      <c r="H152">
-        <v>11.741</v>
-      </c>
-      <c r="I152">
-        <v>11.741</v>
-      </c>
-      <c r="J152">
-        <v>8.763524717218793</v>
-      </c>
-      <c r="K152">
-        <v>0</v>
-      </c>
-      <c r="L152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="B153" t="s">
-        <v>100</v>
-      </c>
-      <c r="C153" t="s">
-        <v>105</v>
-      </c>
-      <c r="D153">
-        <v>4606.596666666665</v>
-      </c>
-      <c r="E153">
-        <v>4605.698888888888</v>
-      </c>
-      <c r="F153">
-        <v>4519.852222222222</v>
-      </c>
-      <c r="G153">
-        <v>4385.144178102745</v>
-      </c>
-      <c r="H153">
-        <v>4889.138337460065</v>
-      </c>
-      <c r="I153">
-        <v>5250.82423949072</v>
-      </c>
-      <c r="J153">
-        <v>6578.111947263328</v>
-      </c>
-      <c r="K153">
-        <v>7170.120638506884</v>
-      </c>
-      <c r="L153">
-        <v>7565.316202862393</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="B154" t="s">
-        <v>101</v>
-      </c>
-      <c r="C154" t="s">
-        <v>136</v>
-      </c>
-      <c r="D154">
-        <v>970.1010234711655</v>
-      </c>
-      <c r="E154">
-        <v>986.4010593431523</v>
-      </c>
-      <c r="F154">
-        <v>953.2439929471319</v>
-      </c>
-      <c r="G154">
-        <v>983.7722582510144</v>
-      </c>
-      <c r="H154">
-        <v>855.062307272117</v>
-      </c>
-      <c r="I154">
-        <v>840.2501921799908</v>
-      </c>
-      <c r="J154">
-        <v>810.4782621674693</v>
-      </c>
-      <c r="K154">
-        <v>1524.804667424967</v>
-      </c>
-      <c r="L154">
-        <v>1475.95566852351</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="B155" t="s">
-        <v>102</v>
-      </c>
-      <c r="C155" t="s">
-        <v>149</v>
-      </c>
-      <c r="D155">
-        <v>0</v>
-      </c>
-      <c r="E155">
-        <v>0</v>
-      </c>
-      <c r="F155">
-        <v>0</v>
-      </c>
-      <c r="G155">
-        <v>0</v>
-      </c>
-      <c r="H155">
-        <v>0</v>
-      </c>
-      <c r="I155">
-        <v>0.472542372881356</v>
-      </c>
-      <c r="J155">
-        <v>2.776186440677966</v>
-      </c>
-      <c r="K155">
-        <v>2.776186440677966</v>
-      </c>
-      <c r="L155">
-        <v>2.539915254237091</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="B156" t="s">
-        <v>103</v>
-      </c>
-      <c r="C156" t="s">
-        <v>147</v>
-      </c>
-      <c r="D156">
-        <v>0</v>
-      </c>
-      <c r="E156">
-        <v>0</v>
-      </c>
-      <c r="F156">
-        <v>0</v>
-      </c>
-      <c r="G156">
-        <v>175.7721576905561</v>
-      </c>
-      <c r="H156">
-        <v>646.818290298377</v>
-      </c>
-      <c r="I156">
-        <v>809.8736935285824</v>
-      </c>
-      <c r="J156">
-        <v>820.2707752599671</v>
-      </c>
-      <c r="K156">
-        <v>831.6284727096426</v>
-      </c>
-      <c r="L156">
-        <v>823.9558081529032</v>
+        <v>311.9699242256103</v>
       </c>
     </row>
   </sheetData>
@@ -6786,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>

--- a/TEMOA_Europe_Results/_5_Final_consumption.xlsx
+++ b/TEMOA_Europe_Results/_5_Final_consumption.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="158">
   <si>
     <t>tech</t>
   </si>
@@ -53,9 +53,15 @@
     <t>UPS_FT_NGA</t>
   </si>
   <si>
+    <t>UPS_FT_ELC</t>
+  </si>
+  <si>
     <t>HH2_FT_NGA</t>
   </si>
   <si>
+    <t>HH2_FT_ELC</t>
+  </si>
+  <si>
     <t>ELC_FT_NGA</t>
   </si>
   <si>
@@ -128,6 +134,9 @@
     <t>AGR_FT_GEO</t>
   </si>
   <si>
+    <t>AGR_FT_ELC</t>
+  </si>
+  <si>
     <t>AGR_FT_HET</t>
   </si>
   <si>
@@ -161,6 +170,9 @@
     <t>COM_FT_SOL</t>
   </si>
   <si>
+    <t>COM_FT_ELC</t>
+  </si>
+  <si>
     <t>COM_FT_HET</t>
   </si>
   <si>
@@ -194,6 +206,9 @@
     <t>RES_FT_SOL</t>
   </si>
   <si>
+    <t>RES_FT_ELC</t>
+  </si>
+  <si>
     <t>RES_FT_HET</t>
   </si>
   <si>
@@ -209,6 +224,9 @@
     <t>TRA_FT_COA</t>
   </si>
   <si>
+    <t>TRA_FT_ELC</t>
+  </si>
+  <si>
     <t>TRA_FT_HFO</t>
   </si>
   <si>
@@ -299,6 +317,9 @@
     <t>IND_FT_GEO</t>
   </si>
   <si>
+    <t>IND_FT_ELC</t>
+  </si>
+  <si>
     <t>IND_FT_HET</t>
   </si>
   <si>
@@ -309,6 +330,9 @@
   </si>
   <si>
     <t>PRI_GAS_NGA</t>
+  </si>
+  <si>
+    <t>ELC</t>
   </si>
   <si>
     <t>RNW_POT_BIO_GAS</t>
@@ -822,7 +846,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L144"/>
+  <dimension ref="A1:L155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -871,7 +895,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D2">
         <v>1.008064516129032</v>
@@ -892,7 +916,7 @@
         <v>15.41105131504931</v>
       </c>
       <c r="J2">
-        <v>17.9453959682406</v>
+        <v>17.94539596824059</v>
       </c>
       <c r="K2">
         <v>17.63902631710519</v>
@@ -909,34 +933,34 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>228.0105906347223</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>228.0105906347223</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>228.0105906347223</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>183.5963142050662</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>100.4044556779121</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>74.8585344922148</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>59.46735000690008</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>122.7837345315433</v>
       </c>
       <c r="L3">
-        <v>479.3505329180259</v>
+        <v>420.1713113662669</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -947,25 +971,25 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D4">
-        <v>7875.671341648519</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>5434.648277032974</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>6184.248740614077</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1743.011716573406</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1133.3462249331</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>316.0748396758877</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -974,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>479.3505329180259</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -982,10 +1006,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -994,25 +1018,25 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.8481675392664928</v>
       </c>
       <c r="G5">
-        <v>227.1353019268994</v>
+        <v>0.4997986368249239</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2348310372348155</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.9506747333889095</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.058771460832366</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>33.76389110047845</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>169.4954984129058</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1020,28 +1044,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D6">
-        <v>6.801850538093468</v>
+        <v>7875.671341648519</v>
       </c>
       <c r="E6">
-        <v>4.958855866887887</v>
+        <v>5434.648277032974</v>
       </c>
       <c r="F6">
-        <v>3.731440058905303</v>
+        <v>6184.248740614076</v>
       </c>
       <c r="G6">
-        <v>3.028460570962756</v>
+        <v>1743.011716573406</v>
       </c>
       <c r="H6">
-        <v>1.516045407591553</v>
+        <v>1133.3462249331</v>
       </c>
       <c r="I6">
-        <v>0.554</v>
+        <v>316.0748396758877</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1058,28 +1082,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D7">
-        <v>1.943385868026705</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1.416815961967968</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.066125731115801</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.8652744488465017</v>
+        <v>227.1353019268994</v>
       </c>
       <c r="H7">
-        <v>0.4331558307404437</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1748707448275863</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1096,28 +1120,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D8">
-        <v>62.18834777685455</v>
+        <v>6.801850538093468</v>
       </c>
       <c r="E8">
-        <v>45.33811078297496</v>
+        <v>4.958855866887887</v>
       </c>
       <c r="F8">
-        <v>34.11602339570562</v>
+        <v>3.731440058905303</v>
       </c>
       <c r="G8">
-        <v>27.68878236308805</v>
+        <v>3.028460570962756</v>
       </c>
       <c r="H8">
-        <v>83.83771884560279</v>
+        <v>1.516045407591553</v>
       </c>
       <c r="I8">
-        <v>28.86803071586206</v>
+        <v>0.554</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1134,28 +1158,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D9">
-        <v>4.858464670066763</v>
+        <v>1.943385868026705</v>
       </c>
       <c r="E9">
-        <v>3.542039904919919</v>
+        <v>1.416815961967968</v>
       </c>
       <c r="F9">
-        <v>2.665314327789503</v>
+        <v>1.066125731115801</v>
       </c>
       <c r="G9">
-        <v>2.163186122116254</v>
+        <v>0.8652744488465017</v>
       </c>
       <c r="H9">
-        <v>0.5488441692595563</v>
+        <v>0.4331558307404437</v>
       </c>
       <c r="I9">
-        <v>0.4371768620689657</v>
+        <v>0.1748707448275863</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1172,28 +1196,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D10">
-        <v>864.8067112718838</v>
+        <v>62.18834777685455</v>
       </c>
       <c r="E10">
-        <v>630.4831030757456</v>
+        <v>45.33811078297496</v>
       </c>
       <c r="F10">
-        <v>474.4259503465314</v>
+        <v>34.11602339570562</v>
       </c>
       <c r="G10">
-        <v>385.0471297366933</v>
+        <v>27.68878236308805</v>
       </c>
       <c r="H10">
-        <v>123.5282357405507</v>
+        <v>83.83771884560278</v>
       </c>
       <c r="I10">
-        <v>54.60336217379314</v>
+        <v>28.86803071586206</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1210,28 +1234,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D11">
-        <v>30.12248095441394</v>
+        <v>4.858464670066763</v>
       </c>
       <c r="E11">
-        <v>21.9606474105035</v>
+        <v>3.542039904919919</v>
       </c>
       <c r="F11">
-        <v>16.52494883229491</v>
+        <v>2.665314327789503</v>
       </c>
       <c r="G11">
-        <v>13.41175395712078</v>
+        <v>2.163186122116254</v>
       </c>
       <c r="H11">
-        <v>6.713915376476879</v>
+        <v>0.5488441692595563</v>
       </c>
       <c r="I11">
-        <v>2.710496544827587</v>
+        <v>0.4371768620689657</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1248,28 +1272,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D12">
-        <v>0.9716929340133528</v>
+        <v>864.8067112718838</v>
       </c>
       <c r="E12">
-        <v>0.7084079809839837</v>
+        <v>630.4831030757457</v>
       </c>
       <c r="F12">
-        <v>0.5330628655579004</v>
+        <v>474.4259503465314</v>
       </c>
       <c r="G12">
-        <v>0.4326372244232509</v>
+        <v>385.0471297366933</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>123.5282357405507</v>
       </c>
       <c r="I12">
-        <v>0.08743537241379315</v>
+        <v>54.60336217379314</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1286,28 +1310,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D13">
-        <v>0.1794232675676901</v>
+        <v>30.12248095441394</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>21.9606474105035</v>
       </c>
       <c r="F13">
-        <v>4.912319923593631</v>
+        <v>16.52494883229491</v>
       </c>
       <c r="G13">
-        <v>2.588518493352901</v>
+        <v>13.41175395712078</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.713915376476879</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.710496544827587</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1324,28 +1348,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D14">
-        <v>4435.751032261716</v>
+        <v>0.9716929340133528</v>
       </c>
       <c r="E14">
-        <v>4356.498111526418</v>
+        <v>0.7084079809839837</v>
       </c>
       <c r="F14">
-        <v>2514.084885334642</v>
+        <v>0.5330628655579004</v>
       </c>
       <c r="G14">
-        <v>1294.259246676451</v>
+        <v>0.4326372244232509</v>
       </c>
       <c r="H14">
-        <v>524.7133248245574</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.08743537241379315</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1362,25 +1386,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D15">
-        <v>4435.571608994148</v>
+        <v>0.1794232675676901</v>
       </c>
       <c r="E15">
-        <v>4356.498111526418</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>2509.172565411048</v>
+        <v>4.912319923593632</v>
       </c>
       <c r="G15">
-        <v>1291.670728183098</v>
+        <v>2.588518493352901</v>
       </c>
       <c r="H15">
-        <v>524.7133248245574</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1400,37 +1424,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D16">
-        <v>0.018</v>
+        <v>4435.751032261716</v>
       </c>
       <c r="E16">
-        <v>42.23157894736841</v>
+        <v>4356.498111526418</v>
       </c>
       <c r="F16">
-        <v>0.028</v>
+        <v>2514.084885334642</v>
       </c>
       <c r="G16">
-        <v>267.8449933794169</v>
+        <v>1294.259246676451</v>
       </c>
       <c r="H16">
-        <v>405.9979036938159</v>
+        <v>524.7133248245573</v>
       </c>
       <c r="I16">
-        <v>199.1385625891259</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>230.8429372167739</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>587.4923285232172</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>720.1580698718305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1438,25 +1462,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="D17">
-        <v>796.0429985929993</v>
+        <v>4435.571608994149</v>
       </c>
       <c r="E17">
-        <v>808.6323066688594</v>
+        <v>4356.498111526418</v>
       </c>
       <c r="F17">
-        <v>574.4531426372948</v>
+        <v>2509.172565411048</v>
       </c>
       <c r="G17">
-        <v>49.43347401223066</v>
+        <v>1291.670728183097</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>524.7133248245574</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1476,37 +1500,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D18">
-        <v>731.5182420388001</v>
+        <v>0.018</v>
       </c>
       <c r="E18">
-        <v>736.7162491679832</v>
+        <v>42.23157894736841</v>
       </c>
       <c r="F18">
-        <v>878.6826940911063</v>
+        <v>0.028</v>
       </c>
       <c r="G18">
-        <v>937.8740681412501</v>
+        <v>267.8449933794169</v>
       </c>
       <c r="H18">
-        <v>617.265184518329</v>
+        <v>405.9979036938159</v>
       </c>
       <c r="I18">
-        <v>678.8389766614387</v>
+        <v>199.1385625891259</v>
       </c>
       <c r="J18">
-        <v>567.7485410419587</v>
+        <v>230.8429372167738</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>587.4923285232172</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>720.1580698718305</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1514,28 +1538,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D19">
-        <v>23.28197751336041</v>
+        <v>796.0429985929993</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>808.6323066688594</v>
       </c>
       <c r="F19">
-        <v>8.666736842105134</v>
+        <v>574.4531426372948</v>
       </c>
       <c r="G19">
-        <v>31.1798168220296</v>
+        <v>49.43347401223066</v>
       </c>
       <c r="H19">
-        <v>34.642118899663</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.178</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1552,37 +1576,37 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D20">
-        <v>172.7</v>
+        <v>731.5182420388001</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>736.7162491679832</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>878.6826940911063</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>937.8740681412499</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>617.2651845183289</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>678.8389766614387</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>567.7485410419587</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>181.9779512195124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1593,25 +1617,25 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D21">
-        <v>361.9473684210526</v>
+        <v>23.28197751336041</v>
       </c>
       <c r="E21">
-        <v>405.4184210526315</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>470.972</v>
+        <v>8.666736842105134</v>
       </c>
       <c r="G21">
-        <v>141.7830385725582</v>
+        <v>31.1798168220296</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>34.642118899663</v>
       </c>
       <c r="I21">
-        <v>80.78958046964634</v>
+        <v>0.178</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1628,19 +1652,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>172.7</v>
       </c>
       <c r="E22">
-        <v>25.95</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>19.13326315789487</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1658,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>181.9779512195124</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1666,37 +1690,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D23">
-        <v>2088.78</v>
+        <v>361.9473684210527</v>
       </c>
       <c r="E23">
-        <v>2123.37</v>
+        <v>405.4184210526316</v>
       </c>
       <c r="F23">
-        <v>2231.01</v>
+        <v>470.972</v>
       </c>
       <c r="G23">
-        <v>2273.754959451373</v>
+        <v>141.7830385725582</v>
       </c>
       <c r="H23">
-        <v>2365.270617843977</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1755.716164853181</v>
+        <v>80.78958046964634</v>
       </c>
       <c r="J23">
-        <v>1513.651419018115</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1359.262061051675</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>2044.200248780948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1707,34 +1731,34 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D24">
-        <v>173.6402096083868</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>182.8141320302344</v>
+        <v>25.95</v>
       </c>
       <c r="F24">
-        <v>200.6885546139522</v>
+        <v>19.13326315789487</v>
       </c>
       <c r="G24">
-        <v>196.2931221782352</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>251.3189747720047</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>290.6293840766128</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>337.5389138307093</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>400.7266638601409</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>460.483572757746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1745,34 +1769,34 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D25">
-        <v>164.23</v>
+        <v>2088.78</v>
       </c>
       <c r="E25">
-        <v>361.6799999999999</v>
+        <v>2123.37</v>
       </c>
       <c r="F25">
-        <v>583.6799999999999</v>
+        <v>2231.01</v>
       </c>
       <c r="G25">
-        <v>1424.805412877689</v>
+        <v>2273.754959451373</v>
       </c>
       <c r="H25">
-        <v>2270.828588015974</v>
+        <v>2365.270617843978</v>
       </c>
       <c r="I25">
-        <v>3321.952759910013</v>
+        <v>1755.716164853181</v>
       </c>
       <c r="J25">
-        <v>4432.897237596907</v>
+        <v>1513.651419018115</v>
       </c>
       <c r="K25">
-        <v>5105.685050617765</v>
+        <v>1359.262061051676</v>
       </c>
       <c r="L25">
-        <v>4845.717985904265</v>
+        <v>2044.200248780948</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1783,34 +1807,34 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D26">
-        <v>0.2120264392857143</v>
+        <v>173.6402096083868</v>
       </c>
       <c r="E26">
-        <v>1.085192100765306</v>
+        <v>182.8141320302344</v>
       </c>
       <c r="F26">
-        <v>2.903255721428571</v>
+        <v>200.6885546139522</v>
       </c>
       <c r="G26">
-        <v>2.893333996428571</v>
+        <v>196.2931221782352</v>
       </c>
       <c r="H26">
-        <v>2.730916182142856</v>
+        <v>251.3189747720047</v>
       </c>
       <c r="I26">
-        <v>1.837907070663264</v>
+        <v>290.6293840766128</v>
       </c>
       <c r="J26">
-        <v>1.181981553473303</v>
+        <v>337.5389138307093</v>
       </c>
       <c r="K26">
-        <v>354.4685172991851</v>
+        <v>400.7266638601409</v>
       </c>
       <c r="L26">
-        <v>589.002936172656</v>
+        <v>460.483572757746</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1821,34 +1845,34 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D27">
-        <v>2.74</v>
+        <v>164.2299999999999</v>
       </c>
       <c r="E27">
-        <v>20.13000000000001</v>
+        <v>361.6799999999999</v>
       </c>
       <c r="F27">
-        <v>20.45999999999999</v>
+        <v>583.6799999999999</v>
       </c>
       <c r="G27">
-        <v>20.45999999999999</v>
+        <v>1424.805412877689</v>
       </c>
       <c r="H27">
-        <v>20.45999999999999</v>
+        <v>2270.828588015974</v>
       </c>
       <c r="I27">
-        <v>15.12616433924174</v>
+        <v>3321.952759910013</v>
       </c>
       <c r="J27">
-        <v>7.601225586842809</v>
+        <v>4432.897237596907</v>
       </c>
       <c r="K27">
-        <v>7.601225586848476</v>
+        <v>5105.685050617765</v>
       </c>
       <c r="L27">
-        <v>0.2971069632000003</v>
+        <v>4845.717985904266</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1859,34 +1883,34 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D28">
-        <v>0.2591920188</v>
+        <v>0.2120264392857142</v>
       </c>
       <c r="E28">
-        <v>0.2767131576</v>
+        <v>1.085192100765306</v>
       </c>
       <c r="F28">
-        <v>0.2767131576</v>
+        <v>2.903255721428571</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>2.89333399642857</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2.730916182142856</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1.837907070663264</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1.181981553473304</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>354.4685172991851</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>589.0029361726561</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1897,34 +1921,34 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D29">
-        <v>1.4608079812</v>
+        <v>2.74</v>
       </c>
       <c r="E29">
-        <v>1.4832868424</v>
+        <v>20.13</v>
       </c>
       <c r="F29">
-        <v>1.5732868424</v>
+        <v>20.46</v>
       </c>
       <c r="G29">
-        <v>5.7195792</v>
+        <v>20.45999999999999</v>
       </c>
       <c r="H29">
-        <v>0.8199360000000008</v>
+        <v>20.45999999999999</v>
       </c>
       <c r="I29">
-        <v>0.6307200000000006</v>
+        <v>15.12616433924174</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>7.60122558684281</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>7.601225586848475</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>0.2971069632000003</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1935,34 +1959,34 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D30">
-        <v>550.0800000000002</v>
+        <v>0.2591920188</v>
       </c>
       <c r="E30">
-        <v>983.02</v>
+        <v>0.2767131576</v>
       </c>
       <c r="F30">
-        <v>1530.69</v>
+        <v>0.2767131576</v>
       </c>
       <c r="G30">
-        <v>2483.153339284388</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>2968.664004468683</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>3070.949472649376</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>3247.47652784112</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>3463.61933677248</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>3493.564058468502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1973,34 +1997,34 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1.4608079812</v>
       </c>
       <c r="E31">
-        <v>126.62</v>
+        <v>1.4832868424</v>
       </c>
       <c r="F31">
-        <v>259.57</v>
+        <v>1.5732868424</v>
       </c>
       <c r="G31">
-        <v>1074.2031820152</v>
+        <v>5.719579199999999</v>
       </c>
       <c r="H31">
-        <v>2402.914212476633</v>
+        <v>0.8199360000000007</v>
       </c>
       <c r="I31">
-        <v>4626.785773364447</v>
+        <v>0.6307200000000006</v>
       </c>
       <c r="J31">
-        <v>7688.923007662646</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>10735.29006498129</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>11915.3367051714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2011,34 +2035,34 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="D32">
-        <v>170.8961693548387</v>
+        <v>550.0800000000002</v>
       </c>
       <c r="E32">
-        <v>143.5453996172209</v>
+        <v>983.0200000000001</v>
       </c>
       <c r="F32">
-        <v>151.7308992330156</v>
+        <v>1530.69</v>
       </c>
       <c r="G32">
-        <v>112.4235439340536</v>
+        <v>2483.153339284388</v>
       </c>
       <c r="H32">
-        <v>95.44763468659447</v>
+        <v>2968.664004468683</v>
       </c>
       <c r="I32">
-        <v>91.35977537842722</v>
+        <v>3070.949472649375</v>
       </c>
       <c r="J32">
-        <v>63.19824402071779</v>
+        <v>3247.47652784112</v>
       </c>
       <c r="K32">
-        <v>25.22421230638831</v>
+        <v>3463.61933677248</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>3493.564058468501</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2046,37 +2070,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>20.50648565960299</v>
+        <v>126.62</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>259.57</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1074.2031820152</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2402.914212476633</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>4626.785773364447</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>7688.923007662646</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>10735.29006498129</v>
       </c>
       <c r="L33">
-        <v>28.59571903453992</v>
+        <v>11915.3367051714</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2084,37 +2108,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>170.8961693548387</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>143.5453996172209</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>151.7308992330156</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>112.4235439340536</v>
       </c>
       <c r="H34">
-        <v>1.825258661779144</v>
+        <v>95.44763468659445</v>
       </c>
       <c r="I34">
-        <v>1.825258661779145</v>
+        <v>91.3597753784272</v>
       </c>
       <c r="J34">
-        <v>2.862638230903593</v>
+        <v>63.19824402071779</v>
       </c>
       <c r="K34">
-        <v>1.374254097532555</v>
+        <v>25.22421230638831</v>
       </c>
       <c r="L34">
-        <v>1.825258661779144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2122,37 +2146,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D35">
-        <v>16304.90697674419</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>14490.30381423875</v>
+        <v>20.50648565960299</v>
       </c>
       <c r="F35">
-        <v>16240.07177034972</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>14287.06968604584</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>15529.25625154568</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>15979.50207721628</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>15627.87869703556</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>15975.36440197499</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>16273.44025568533</v>
+        <v>28.59571903453992</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2163,34 +2187,34 @@
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D36">
-        <v>122.5454049510514</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>127.1084867608177</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>2253.020208950489</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>2253.02020895049</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>149.5079451655364</v>
+        <v>1.825258661779145</v>
       </c>
       <c r="I36">
-        <v>115.2508745369697</v>
+        <v>1.825258661779144</v>
       </c>
       <c r="J36">
-        <v>78.53205375394717</v>
+        <v>2.862638230903593</v>
       </c>
       <c r="K36">
-        <v>40.03850727312012</v>
+        <v>1.374254097532555</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1.825258661779144</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2201,34 +2225,34 @@
         <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="D37">
-        <v>26.74567697968584</v>
+        <v>16304.90697674419</v>
       </c>
       <c r="E37">
-        <v>21.17510416666667</v>
+        <v>14490.30381423875</v>
       </c>
       <c r="F37">
-        <v>10.98211694988078</v>
+        <v>16240.07177034972</v>
       </c>
       <c r="G37">
-        <v>7.058368055555556</v>
+        <v>14287.06968604584</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>15529.25625154568</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>15979.50207721628</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>15627.87869703556</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>15975.36440197499</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>16273.44025568533</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2239,31 +2263,31 @@
         <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D38">
-        <v>2.908172221624048</v>
+        <v>122.5454049510514</v>
       </c>
       <c r="E38">
-        <v>2.908172221624048</v>
+        <v>127.1084867608177</v>
       </c>
       <c r="F38">
-        <v>2.908172221624048</v>
+        <v>2253.02020895049</v>
       </c>
       <c r="G38">
-        <v>0.1880208333333333</v>
+        <v>2253.020208950489</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>149.5079451655364</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>115.2508745369697</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>78.53205375394717</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>40.03850727312012</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -2277,19 +2301,19 @@
         <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D39">
-        <v>6.962091076923075</v>
+        <v>26.74567697968584</v>
       </c>
       <c r="E39">
-        <v>5.221568307692307</v>
+        <v>21.17510416666666</v>
       </c>
       <c r="F39">
-        <v>1.83212923076923</v>
+        <v>10.98211694988078</v>
       </c>
       <c r="G39">
-        <v>1.740522769230768</v>
+        <v>7.058368055555557</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2312,22 +2336,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="D40">
-        <v>33.76194769230769</v>
+        <v>2.908172221624048</v>
       </c>
       <c r="E40">
-        <v>25.32146076923077</v>
+        <v>2.908172221624048</v>
       </c>
       <c r="F40">
-        <v>8.884723076923079</v>
+        <v>2.908172221624048</v>
       </c>
       <c r="G40">
-        <v>8.44048692307692</v>
+        <v>0.1880208333333333</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2350,22 +2374,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D41">
-        <v>1.216268923076923</v>
+        <v>6.962091076923075</v>
       </c>
       <c r="E41">
-        <v>0.9122016923076924</v>
+        <v>5.221568307692307</v>
       </c>
       <c r="F41">
-        <v>0.3200707692307692</v>
+        <v>1.83212923076923</v>
       </c>
       <c r="G41">
-        <v>0.3040672307692307</v>
+        <v>1.740522769230768</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2388,22 +2412,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D42">
-        <v>32.30537950293986</v>
+        <v>33.76194769230769</v>
       </c>
       <c r="E42">
-        <v>32.30537950293986</v>
+        <v>25.32146076923078</v>
       </c>
       <c r="F42">
-        <v>18.15514483320112</v>
+        <v>8.884723076923077</v>
       </c>
       <c r="G42">
-        <v>32.30537950293986</v>
+        <v>8.440486923076921</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2429,19 +2453,19 @@
         <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="D43">
-        <v>14.95681909090909</v>
+        <v>1.216268923076923</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.9122016923076924</v>
       </c>
       <c r="F43">
-        <v>5.620715454545455</v>
+        <v>0.3200707692307692</v>
       </c>
       <c r="G43">
-        <v>3.284535334828645</v>
+        <v>0.3040672307692306</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2464,34 +2488,34 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D44">
-        <v>11.55898545454546</v>
+        <v>32.30537950293986</v>
       </c>
       <c r="E44">
-        <v>38.55096168563591</v>
+        <v>32.30537950293986</v>
       </c>
       <c r="F44">
-        <v>0.2222881818181818</v>
+        <v>18.15514483320112</v>
       </c>
       <c r="G44">
-        <v>3.590865055175358</v>
+        <v>32.30537950293986</v>
       </c>
       <c r="H44">
-        <v>1.633246968800949</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>15.60293287480899</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>44.45302486184622</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>11.90475499079633</v>
+        <v>0</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -2502,28 +2526,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>14.95681909090909</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>5.620715454545455</v>
       </c>
       <c r="G45">
-        <v>0.1701831779703961</v>
+        <v>3.284535334828645</v>
       </c>
       <c r="H45">
-        <v>0.2578811003369919</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>5.510224943175763</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2540,37 +2564,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D46">
-        <v>5.23965</v>
+        <v>11.55898545454546</v>
       </c>
       <c r="E46">
-        <v>8.635037929585522</v>
+        <v>38.55096168563591</v>
       </c>
       <c r="F46">
-        <v>10.03472363636364</v>
+        <v>0.2222881818181818</v>
       </c>
       <c r="G46">
-        <v>9.972734229065207</v>
+        <v>3.590865055175358</v>
       </c>
       <c r="H46">
-        <v>12.43559972736159</v>
+        <v>1.633246968800949</v>
       </c>
       <c r="I46">
-        <v>7.00023474923861</v>
+        <v>15.60293287480899</v>
       </c>
       <c r="J46">
-        <v>23.4831623249687</v>
+        <v>44.45302486184622</v>
       </c>
       <c r="K46">
-        <v>56.40000000000001</v>
+        <v>11.90475499079633</v>
       </c>
       <c r="L46">
-        <v>56.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2578,28 +2602,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D47">
-        <v>1.813684210526316</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>2.5845</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.9068421052631579</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>0.8615</v>
+        <v>0.1701831779703961</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>0.2578811003369919</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>5.510224943175764</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2619,34 +2643,34 @@
         <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D48">
-        <v>22.35415031423101</v>
+        <v>5.23965</v>
       </c>
       <c r="E48">
-        <v>34.49745432589496</v>
+        <v>8.635037929585522</v>
       </c>
       <c r="F48">
-        <v>24.43792595693791</v>
+        <v>10.03472363636364</v>
       </c>
       <c r="G48">
-        <v>31.71669116596022</v>
+        <v>9.972734229065207</v>
       </c>
       <c r="H48">
-        <v>14.94218558857133</v>
+        <v>12.43559972736159</v>
       </c>
       <c r="I48">
-        <v>7.315736840065262</v>
+        <v>7.00023474923861</v>
       </c>
       <c r="J48">
-        <v>7.315736840065262</v>
+        <v>23.4831623249687</v>
       </c>
       <c r="K48">
-        <v>35.50895484278136</v>
+        <v>56.40000000000001</v>
       </c>
       <c r="L48">
-        <v>39.80121402455644</v>
+        <v>56.40000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2657,28 +2681,28 @@
         <v>38</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="D49">
-        <v>1995.444665210524</v>
+        <v>1.813684210526316</v>
       </c>
       <c r="E49">
-        <v>2035.995752685427</v>
+        <v>2.5845</v>
       </c>
       <c r="F49">
-        <v>2049.096442858387</v>
+        <v>0.9068421052631579</v>
       </c>
       <c r="G49">
-        <v>1784.105691094214</v>
+        <v>0.8615</v>
       </c>
       <c r="H49">
-        <v>1339.374127096744</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>1138.033071701027</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>305.8458260806833</v>
+        <v>0</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -2692,37 +2716,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="D50">
-        <v>41.26569091632824</v>
+        <v>207.486</v>
       </c>
       <c r="E50">
-        <v>49.18060989271994</v>
+        <v>217.79</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>246.315</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>309.760578992377</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>309.7605789923768</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>329.4890612734137</v>
       </c>
       <c r="J50">
-        <v>89.4497865736474</v>
+        <v>325.6799050292584</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>329.4890612734136</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>331.6405707372796</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2730,37 +2754,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>22.354150314231</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>34.49745432589497</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>24.43792595693792</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>31.71669116596023</v>
       </c>
       <c r="H51">
-        <v>17.90537618294878</v>
+        <v>14.94218558857133</v>
       </c>
       <c r="I51">
-        <v>17.90537618294878</v>
+        <v>7.315736840065263</v>
       </c>
       <c r="J51">
-        <v>17.90537618294878</v>
+        <v>7.315736840065263</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>35.50895484278134</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>39.80121402455645</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2768,31 +2792,31 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C52" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="D52">
-        <v>16904.1806400318</v>
+        <v>1995.444665210524</v>
       </c>
       <c r="E52">
-        <v>14816.66777976546</v>
+        <v>2035.995752685427</v>
       </c>
       <c r="F52">
-        <v>10890.3410952097</v>
+        <v>2049.096442858387</v>
       </c>
       <c r="G52">
-        <v>21455.88372093023</v>
+        <v>1784.105691094214</v>
       </c>
       <c r="H52">
-        <v>13711.8803486241</v>
+        <v>1339.374127096744</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1138.033071701027</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>305.8458260806833</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -2806,22 +2830,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C53" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="D53">
-        <v>19.37985714285714</v>
+        <v>41.26569091632824</v>
       </c>
       <c r="E53">
-        <v>14.53489285714286</v>
+        <v>49.18060989271994</v>
       </c>
       <c r="F53">
-        <v>9.68992857142857</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>40.698</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -2830,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>89.4497865736474</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -2847,28 +2871,28 @@
         <v>41</v>
       </c>
       <c r="C54" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D54">
-        <v>1.724375335775335</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>1.467392612942604</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1.253937667887667</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>0.7447765262512641</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>17.90537618294878</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>17.90537618294878</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>17.90537618294878</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -2885,22 +2909,22 @@
         <v>42</v>
       </c>
       <c r="C55" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D55">
-        <v>10.19116</v>
+        <v>16904.1806400318</v>
       </c>
       <c r="E55">
-        <v>10.19116</v>
+        <v>14816.66777976546</v>
       </c>
       <c r="F55">
-        <v>32.78670999999999</v>
+        <v>10890.3410952097</v>
       </c>
       <c r="G55">
-        <v>10.19116</v>
+        <v>21455.88372093023</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>13711.8803486241</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -2920,22 +2944,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C56" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D56">
-        <v>211.4928059999999</v>
+        <v>19.37985714285714</v>
       </c>
       <c r="E56">
-        <v>180.619436</v>
+        <v>14.53489285714286</v>
       </c>
       <c r="F56">
-        <v>147.347332</v>
+        <v>9.68992857142857</v>
       </c>
       <c r="G56">
-        <v>211.4928059999999</v>
+        <v>40.698</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -2958,22 +2982,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C57" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D57">
-        <v>15.665034</v>
+        <v>1.724375335775335</v>
       </c>
       <c r="E57">
-        <v>13.48340400000001</v>
+        <v>1.467392612942604</v>
       </c>
       <c r="F57">
-        <v>12.728958</v>
+        <v>1.253937667887667</v>
       </c>
       <c r="G57">
-        <v>15.665034</v>
+        <v>0.7447765262512641</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -2996,28 +3020,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C58" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D58">
-        <v>66.026</v>
+        <v>10.19116</v>
       </c>
       <c r="E58">
-        <v>66.026</v>
+        <v>10.19116</v>
       </c>
       <c r="F58">
-        <v>61.60146666666667</v>
+        <v>32.78670999999999</v>
       </c>
       <c r="G58">
-        <v>66.026</v>
+        <v>10.19116</v>
       </c>
       <c r="H58">
-        <v>66.026</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>66.026</v>
+        <v>0</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -3034,31 +3058,31 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>211.4928059999999</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>180.619436</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>147.347332</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>211.4928059999999</v>
       </c>
       <c r="H59">
-        <v>18.90859824690349</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>89.58292287360925</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>177.1679228736092</v>
+        <v>0</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -3072,22 +3096,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C60" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>15.665034</v>
       </c>
       <c r="E60">
-        <v>56.36402829131656</v>
+        <v>13.483404</v>
       </c>
       <c r="F60">
-        <v>143.9490282913166</v>
+        <v>12.728958</v>
       </c>
       <c r="G60">
-        <v>14.3102963353892</v>
+        <v>15.665034</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -3110,28 +3134,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C61" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D61">
-        <v>143.9490282913166</v>
+        <v>66.026</v>
       </c>
       <c r="E61">
-        <v>106.4935982469035</v>
+        <v>66.026</v>
       </c>
       <c r="F61">
-        <v>33.21889458229269</v>
+        <v>61.60146666666667</v>
       </c>
       <c r="G61">
-        <v>80.32151527405534</v>
+        <v>66.026</v>
       </c>
       <c r="H61">
-        <v>107.1983230074817</v>
+        <v>66.026</v>
       </c>
       <c r="I61">
-        <v>87.58499999999999</v>
+        <v>66.026</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -3148,34 +3172,34 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C62" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D62">
-        <v>0.2559717086834734</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>1.92437346177996</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>11.83907712639076</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>11.83907712639076</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>154.1112183407113</v>
+        <v>18.90859824690349</v>
       </c>
       <c r="I62">
-        <v>174.0482849409435</v>
+        <v>89.58292287360925</v>
       </c>
       <c r="J62">
-        <v>368.7624670430674</v>
+        <v>177.1679228736093</v>
       </c>
       <c r="K62">
-        <v>368.7624670430674</v>
+        <v>0</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -3186,37 +3210,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C63" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D63">
-        <v>9.427</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>9.427</v>
+        <v>56.36402829131656</v>
       </c>
       <c r="F63">
-        <v>9.427</v>
+        <v>143.9490282913166</v>
       </c>
       <c r="G63">
-        <v>4.889586416628297</v>
+        <v>14.3102963353892</v>
       </c>
       <c r="H63">
-        <v>0.1947015814467149</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>0.2639831805060916</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>0.3322723593951087</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>0.3985013069338333</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>0.4559705397882656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3227,34 +3251,34 @@
         <v>47</v>
       </c>
       <c r="C64" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D64">
-        <v>178.8003714084677</v>
+        <v>143.9490282913166</v>
       </c>
       <c r="E64">
-        <v>498.2591758690002</v>
+        <v>106.4935982469035</v>
       </c>
       <c r="F64">
-        <v>768.7418753371331</v>
+        <v>33.21889458229269</v>
       </c>
       <c r="G64">
-        <v>1114.370050033673</v>
+        <v>80.32151527405534</v>
       </c>
       <c r="H64">
-        <v>1332.713761802705</v>
+        <v>107.1983230074817</v>
       </c>
       <c r="I64">
-        <v>1367.143184696055</v>
+        <v>87.58499999999999</v>
       </c>
       <c r="J64">
-        <v>1408.528071260459</v>
+        <v>0</v>
       </c>
       <c r="K64">
-        <v>921.0911629797448</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>1307.703186401038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3265,31 +3289,31 @@
         <v>48</v>
       </c>
       <c r="C65" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D65">
-        <v>517.2279999999998</v>
+        <v>0.2559717086834734</v>
       </c>
       <c r="E65">
-        <v>379.3709999999999</v>
+        <v>1.92437346177996</v>
       </c>
       <c r="F65">
-        <v>384.2320000000001</v>
+        <v>11.83907712639076</v>
       </c>
       <c r="G65">
-        <v>223.9064116165361</v>
+        <v>11.83907712639076</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>154.1112183407113</v>
       </c>
       <c r="I65">
-        <v>165.4340891307456</v>
+        <v>174.0482849409435</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>368.7624670430673</v>
       </c>
       <c r="K65">
-        <v>72.42879757475646</v>
+        <v>368.7624670430675</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -3303,34 +3327,34 @@
         <v>49</v>
       </c>
       <c r="C66" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="D66">
-        <v>5840.831166993049</v>
+        <v>9.427</v>
       </c>
       <c r="E66">
-        <v>5251.523504764431</v>
+        <v>9.427</v>
       </c>
       <c r="F66">
-        <v>5281.813605525551</v>
+        <v>9.427</v>
       </c>
       <c r="G66">
-        <v>5358.542037986953</v>
+        <v>4.889586416628297</v>
       </c>
       <c r="H66">
-        <v>5198.292304361852</v>
+        <v>0.1947015814467149</v>
       </c>
       <c r="I66">
-        <v>4726.988087407253</v>
+        <v>0.2639831805060916</v>
       </c>
       <c r="J66">
-        <v>1661.11980659572</v>
+        <v>0.3322723593951087</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>0.3985013069338333</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>0.4559705397882656</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3338,37 +3362,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C67" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D67">
-        <v>41.78384574640344</v>
+        <v>178.8003714084677</v>
       </c>
       <c r="E67">
-        <v>30.50678757427843</v>
+        <v>498.2591758690001</v>
       </c>
       <c r="F67">
-        <v>69.47480824213466</v>
+        <v>768.7418753371334</v>
       </c>
       <c r="G67">
-        <v>8.014403297976363</v>
+        <v>1114.370050033674</v>
       </c>
       <c r="H67">
-        <v>69.66546842112534</v>
+        <v>1332.713761802705</v>
       </c>
       <c r="I67">
-        <v>46.57978711922549</v>
+        <v>1367.143184696055</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1408.528071260459</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>921.0911629797446</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>1307.703186401038</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3376,37 +3400,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C68" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>3268.416</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>3261.199999999999</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>3036.045</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>3544.456339542675</v>
       </c>
       <c r="H68">
-        <v>78.54108619781466</v>
+        <v>4212.511636259744</v>
       </c>
       <c r="I68">
-        <v>78.54108619781466</v>
+        <v>4640.865328896034</v>
       </c>
       <c r="J68">
-        <v>75.24236057750645</v>
+        <v>5362.426004310089</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>6171.854786319438</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>6220.290011432261</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3414,34 +3438,34 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C69" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D69">
-        <v>39115.33105388199</v>
+        <v>517.2279999999998</v>
       </c>
       <c r="E69">
-        <v>24299.23234562519</v>
+        <v>379.3709999999999</v>
       </c>
       <c r="F69">
-        <v>19504.09302325581</v>
+        <v>384.2320000000001</v>
       </c>
       <c r="G69">
-        <v>20849.80020067175</v>
+        <v>223.9064116165361</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>165.4340891307456</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>72.42879757475646</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -3452,31 +3476,31 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D70">
-        <v>15.38006294117647</v>
+        <v>5840.831166993049</v>
       </c>
       <c r="E70">
-        <v>11.53504720588235</v>
+        <v>5251.523504764432</v>
       </c>
       <c r="F70">
-        <v>32.298</v>
+        <v>5281.813605525551</v>
       </c>
       <c r="G70">
-        <v>16.40738916666667</v>
+        <v>5358.542037986954</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>5198.292304361851</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>4726.988087407252</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>1661.119806595719</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -3490,28 +3514,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C71" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D71">
-        <v>74.81508835627973</v>
+        <v>41.78384574640344</v>
       </c>
       <c r="E71">
-        <v>54.49496193223444</v>
+        <v>30.50678757427843</v>
       </c>
       <c r="F71">
-        <v>157.167</v>
+        <v>69.47480824213466</v>
       </c>
       <c r="G71">
-        <v>82.2764822238962</v>
+        <v>8.014403297976363</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>69.66546842112534</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>46.57978711922549</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -3531,28 +3555,28 @@
         <v>53</v>
       </c>
       <c r="C72" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="D72">
-        <v>45.78898999999999</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>63.32992999999998</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>60.37431424999999</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>1.583105190047294</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>78.54108619781466</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>78.54108619781468</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>75.24236057750645</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -3566,22 +3590,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C73" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D73">
-        <v>576.8307300000002</v>
+        <v>39115.33105388199</v>
       </c>
       <c r="E73">
-        <v>395.0441762499999</v>
+        <v>24299.23234562519</v>
       </c>
       <c r="F73">
-        <v>284.11442</v>
+        <v>19504.09302325581</v>
       </c>
       <c r="G73">
-        <v>268.7164967766931</v>
+        <v>20849.80020067175</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -3604,22 +3628,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C74" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D74">
-        <v>19.25628</v>
+        <v>15.38006294117647</v>
       </c>
       <c r="E74">
-        <v>14.17651875</v>
+        <v>11.53504720588235</v>
       </c>
       <c r="F74">
-        <v>10.65429075</v>
+        <v>32.298</v>
       </c>
       <c r="G74">
-        <v>8.359781504125994</v>
+        <v>16.40738916666667</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -3642,25 +3666,25 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C75" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D75">
-        <v>228.1456133856186</v>
+        <v>74.81508835627973</v>
       </c>
       <c r="E75">
-        <v>397.267</v>
+        <v>54.49496193223444</v>
       </c>
       <c r="F75">
-        <v>397.267</v>
+        <v>157.167</v>
       </c>
       <c r="G75">
-        <v>397.267</v>
+        <v>82.2764822238962</v>
       </c>
       <c r="H75">
-        <v>186.4415206345662</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -3680,31 +3704,31 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C76" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D76">
-        <v>62.33463157894741</v>
+        <v>45.78898999999999</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>63.32992999999998</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>60.37431424999999</v>
       </c>
       <c r="G76">
-        <v>108.3719680480249</v>
+        <v>1.583105190047294</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
       <c r="I76">
-        <v>240.6389340676184</v>
+        <v>0</v>
       </c>
       <c r="J76">
-        <v>247.2891399096168</v>
+        <v>0</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -3718,22 +3742,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C77" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="D77">
-        <v>428.0943002820254</v>
+        <v>576.8307300000002</v>
       </c>
       <c r="E77">
-        <v>341.534787427492</v>
+        <v>395.04417625</v>
       </c>
       <c r="F77">
-        <v>460.6230389475028</v>
+        <v>284.11442</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>268.7164967766931</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -3756,31 +3780,31 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C78" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="D78">
-        <v>872.4050456523876</v>
+        <v>19.25628</v>
       </c>
       <c r="E78">
-        <v>862.800212572508</v>
+        <v>14.17651875</v>
       </c>
       <c r="F78">
-        <v>707.9599610524972</v>
+        <v>10.65429075</v>
       </c>
       <c r="G78">
-        <v>1255.280031951975</v>
+        <v>8.359781504125994</v>
       </c>
       <c r="H78">
-        <v>1046.949756425813</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>761.751698142519</v>
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>1116.362860090383</v>
+        <v>0</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -3794,28 +3818,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C79" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D79">
-        <v>0.8180224866395932</v>
+        <v>228.1456133856186</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>397.267</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>397.267</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>397.267</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>186.4415206345662</v>
       </c>
       <c r="I79">
-        <v>33.26177505682423</v>
+        <v>0</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -3832,31 +3856,31 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C80" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D80">
-        <v>523.97</v>
+        <v>62.33463157894741</v>
       </c>
       <c r="E80">
-        <v>523.97</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>523.97</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>523.97</v>
+        <v>108.3719680480249</v>
       </c>
       <c r="H80">
-        <v>613.4756246907214</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>613.4756246907214</v>
+        <v>240.6389340676184</v>
       </c>
       <c r="J80">
-        <v>613.4756246907214</v>
+        <v>247.2891399096168</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -3870,37 +3894,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C81" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D81">
-        <v>43.61390455624548</v>
+        <v>428.0943002820254</v>
       </c>
       <c r="E81">
-        <v>43.61390455624548</v>
+        <v>341.534787427492</v>
       </c>
       <c r="F81">
-        <v>34.25901207732596</v>
+        <v>460.6230389475028</v>
       </c>
       <c r="G81">
-        <v>16.21479140513649</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>1.745323646548612</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>2.365632742881152</v>
+        <v>0</v>
       </c>
       <c r="J81">
-        <v>3.133040774495054</v>
+        <v>0</v>
       </c>
       <c r="K81">
-        <v>3.874834832925195</v>
+        <v>0</v>
       </c>
       <c r="L81">
-        <v>4.060456702465739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3908,37 +3932,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C82" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D82">
-        <v>82.60509544375452</v>
+        <v>872.4050456523876</v>
       </c>
       <c r="E82">
-        <v>111.9570954437545</v>
+        <v>862.800212572508</v>
       </c>
       <c r="F82">
-        <v>134.813987922674</v>
+        <v>707.9599610524972</v>
       </c>
       <c r="G82">
-        <v>134.813987922674</v>
+        <v>1255.280031951975</v>
       </c>
       <c r="H82">
-        <v>203.5121220151531</v>
+        <v>1046.949756425813</v>
       </c>
       <c r="I82">
-        <v>312.637868910766</v>
+        <v>761.751698142519</v>
       </c>
       <c r="J82">
-        <v>479.2963471860675</v>
+        <v>1116.362860090383</v>
       </c>
       <c r="K82">
-        <v>788.4715197210711</v>
+        <v>0</v>
       </c>
       <c r="L82">
-        <v>342.3498774263065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3949,25 +3973,25 @@
         <v>59</v>
       </c>
       <c r="C83" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D83">
-        <v>949.6909999999999</v>
+        <v>0.8180224866395932</v>
       </c>
       <c r="E83">
-        <v>866.5870000000001</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>847.413</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>847.413</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>508.0608862395455</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>135.0707585846722</v>
+        <v>33.26177505682423</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -3987,34 +4011,34 @@
         <v>60</v>
       </c>
       <c r="C84" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D84">
-        <v>83156.49994764967</v>
+        <v>523.97</v>
       </c>
       <c r="E84">
-        <v>70720.61381623767</v>
+        <v>523.97</v>
       </c>
       <c r="F84">
-        <v>44609.88836412704</v>
+        <v>523.97</v>
       </c>
       <c r="G84">
-        <v>51372.70632080058</v>
+        <v>523.97</v>
       </c>
       <c r="H84">
-        <v>28540.33049327404</v>
+        <v>613.4756246907214</v>
       </c>
       <c r="I84">
-        <v>23061.46706808271</v>
+        <v>613.4756246907214</v>
       </c>
       <c r="J84">
-        <v>3378.065179173498</v>
+        <v>613.4756246907214</v>
       </c>
       <c r="K84">
-        <v>246.8836476098039</v>
+        <v>0</v>
       </c>
       <c r="L84">
-        <v>61.5429265354793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4022,37 +4046,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C85" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D85">
-        <v>361.5499997723899</v>
+        <v>43.61390455624548</v>
       </c>
       <c r="E85">
-        <v>307.4809296358159</v>
+        <v>43.61390455624548</v>
       </c>
       <c r="F85">
-        <v>2106.216323420692</v>
+        <v>34.25901207732596</v>
       </c>
       <c r="G85">
-        <v>223.359592699133</v>
+        <v>16.21479140513649</v>
       </c>
       <c r="H85">
-        <v>1902.688699551603</v>
+        <v>1.745323646548612</v>
       </c>
       <c r="I85">
-        <v>1537.431137872181</v>
+        <v>2.365632742881152</v>
       </c>
       <c r="J85">
-        <v>225.2043452782332</v>
+        <v>3.133040774495054</v>
       </c>
       <c r="K85">
-        <v>16.45890984065359</v>
+        <v>3.874834832925195</v>
       </c>
       <c r="L85">
-        <v>4.102861769031955</v>
+        <v>4.060456702465739</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4060,37 +4084,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C86" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D86">
-        <v>6869.449995675407</v>
+        <v>82.60509544375452</v>
       </c>
       <c r="E86">
-        <v>5842.137663080503</v>
+        <v>111.9570954437545</v>
       </c>
       <c r="F86">
-        <v>8373.641406258557</v>
+        <v>134.813987922674</v>
       </c>
       <c r="G86">
-        <v>4243.832261283526</v>
+        <v>134.813987922674</v>
       </c>
       <c r="H86">
-        <v>5456.767591166863</v>
+        <v>203.5121220151531</v>
       </c>
       <c r="I86">
-        <v>4409.236470878707</v>
+        <v>312.637868910766</v>
       </c>
       <c r="J86">
-        <v>645.8690657036125</v>
+        <v>479.2963471860674</v>
       </c>
       <c r="K86">
-        <v>47.20291124111973</v>
+        <v>788.471519721071</v>
       </c>
       <c r="L86">
-        <v>11.76669790363881</v>
+        <v>342.3498774263064</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4098,37 +4122,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C87" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D87">
-        <v>193358.5871330282</v>
+        <v>3307.747</v>
       </c>
       <c r="E87">
-        <v>204516.9717943329</v>
+        <v>3150.42</v>
       </c>
       <c r="F87">
-        <v>201160.5025564647</v>
+        <v>3264.414</v>
       </c>
       <c r="G87">
-        <v>206748.866861733</v>
+        <v>2898.643387741615</v>
       </c>
       <c r="H87">
-        <v>164070.1266314401</v>
+        <v>3225.403246304778</v>
       </c>
       <c r="I87">
-        <v>103908.3328136983</v>
+        <v>3504.839157656599</v>
       </c>
       <c r="J87">
-        <v>68275.06602572781</v>
+        <v>5479.564104338084</v>
       </c>
       <c r="K87">
-        <v>13786.28262318673</v>
+        <v>7500.520155545324</v>
       </c>
       <c r="L87">
-        <v>2277.886981433789</v>
+        <v>7339.697573400088</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4136,28 +4160,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C88" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>949.6909999999999</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>866.5870000000001</v>
       </c>
       <c r="F88">
-        <v>3442.866393191017</v>
+        <v>847.413</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>847.413</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>508.0608862395455</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>135.0707585846722</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -4174,37 +4198,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C89" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>83156.49994764967</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>70720.61381623767</v>
       </c>
       <c r="F89">
-        <v>7012.999999999998</v>
+        <v>44609.88836412704</v>
       </c>
       <c r="G89">
-        <v>19160.30242512919</v>
+        <v>51372.70632080058</v>
       </c>
       <c r="H89">
-        <v>26165.95440800995</v>
+        <v>28540.33049327404</v>
       </c>
       <c r="I89">
-        <v>28752.27800424531</v>
+        <v>23061.46706808271</v>
       </c>
       <c r="J89">
-        <v>14682.96056517367</v>
+        <v>3378.065179173498</v>
       </c>
       <c r="K89">
-        <v>2779.396173558048</v>
+        <v>246.8836476098039</v>
       </c>
       <c r="L89">
-        <v>11478.25014094511</v>
+        <v>61.5429265354793</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4212,37 +4236,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C90" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>361.5499997723899</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>307.4809296358159</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>2106.216323420692</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>223.359592699133</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1902.688699551603</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1537.431137872181</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>225.2043452782332</v>
       </c>
       <c r="K90">
-        <v>11271.28705331147</v>
+        <v>16.45890984065359</v>
       </c>
       <c r="L90">
-        <v>31801.60250629687</v>
+        <v>4.102861769031955</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4250,37 +4274,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C91" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>6869.449995675407</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>5842.137663080503</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>8373.641406258557</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>4243.832261283526</v>
       </c>
       <c r="H91">
-        <v>14192.94394193423</v>
+        <v>5456.767591166863</v>
       </c>
       <c r="I91">
-        <v>15910.63460645681</v>
+        <v>4409.236470878707</v>
       </c>
       <c r="J91">
-        <v>17960.1781240045</v>
+        <v>645.8690657036125</v>
       </c>
       <c r="K91">
-        <v>17960.17812400449</v>
+        <v>47.20291124111973</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>11.76669790363881</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4288,37 +4312,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C92" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D92">
-        <v>7459.947906976745</v>
+        <v>193358.5871330282</v>
       </c>
       <c r="E92">
-        <v>8087.043507027059</v>
+        <v>204516.9717943329</v>
       </c>
       <c r="F92">
-        <v>4769.284525849926</v>
+        <v>201160.5025564648</v>
       </c>
       <c r="G92">
-        <v>8428.673142576763</v>
+        <v>206748.866861733</v>
       </c>
       <c r="H92">
-        <v>8625.014163091058</v>
+        <v>164070.1266314401</v>
       </c>
       <c r="I92">
-        <v>8704.992482561125</v>
+        <v>103908.3328136983</v>
       </c>
       <c r="J92">
-        <v>8430.976782247228</v>
+        <v>68275.06602572781</v>
       </c>
       <c r="K92">
-        <v>9125.711862047974</v>
+        <v>13786.28262318673</v>
       </c>
       <c r="L92">
-        <v>506.0983802645876</v>
+        <v>2277.886981433789</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4326,10 +4350,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C93" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -4338,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>3442.866393191017</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -4356,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="L93">
-        <v>9615.869225027169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -4364,10 +4388,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C94" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -4376,25 +4400,25 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>7012.999999999998</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>19160.30242512919</v>
       </c>
       <c r="H94">
-        <v>249.3034747613665</v>
+        <v>26165.95440800994</v>
       </c>
       <c r="I94">
-        <v>559.096692149867</v>
+        <v>28752.27800424531</v>
       </c>
       <c r="J94">
-        <v>1220.571203849674</v>
+        <v>14682.96056517367</v>
       </c>
       <c r="K94">
-        <v>896.0952868267118</v>
+        <v>2779.396173558048</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>11478.25014094511</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4402,25 +4426,25 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C95" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>0.334</v>
+        <v>0</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>0.105</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>0.06937853016302142</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -4429,10 +4453,10 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>11271.28705331147</v>
       </c>
       <c r="L95">
-        <v>0</v>
+        <v>31801.60250629687</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4440,34 +4464,34 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C96" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="D96">
-        <v>0.582</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>0.105</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>0.3689999999999999</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>0.03375706032556355</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>14192.94394193423</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>15910.63460645681</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>17960.1781240045</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>17960.1781240045</v>
       </c>
       <c r="L96">
         <v>0</v>
@@ -4478,37 +4502,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C97" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="D97">
-        <v>71.47929534638689</v>
+        <v>7459.947906976745</v>
       </c>
       <c r="E97">
-        <v>153.7698579639726</v>
+        <v>8087.043507027059</v>
       </c>
       <c r="F97">
-        <v>153.7698579639726</v>
+        <v>4769.284525849926</v>
       </c>
       <c r="G97">
-        <v>153.7698579639726</v>
+        <v>8428.673142576761</v>
       </c>
       <c r="H97">
-        <v>6.942508241366317</v>
+        <v>8625.014163091062</v>
       </c>
       <c r="I97">
-        <v>1.884389288047028</v>
+        <v>8704.992482561125</v>
       </c>
       <c r="J97">
-        <v>11.10385369039843</v>
+        <v>8430.976782247228</v>
       </c>
       <c r="K97">
-        <v>25.93076420640105</v>
+        <v>9125.711862047981</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>506.0983802645876</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4516,37 +4540,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C98" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="D98">
-        <v>231.509</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>188.4371973256372</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>81.79912695211803</v>
+        <v>0</v>
       </c>
       <c r="G98">
-        <v>137.5780869725753</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>86.66154710639731</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>86.19804345676226</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>86.19804345676226</v>
+        <v>0</v>
       </c>
       <c r="K98">
         <v>0</v>
       </c>
       <c r="L98">
-        <v>0</v>
+        <v>9615.869225027167</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4554,34 +4578,34 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C99" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="D99">
-        <v>78.29765381649612</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>96.69685293076805</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>158.5983795893451</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>106.0922944805327</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>358.637905790592</v>
+        <v>249.3034747613665</v>
       </c>
       <c r="I99">
-        <v>591.2027189729818</v>
+        <v>559.096692149867</v>
       </c>
       <c r="J99">
-        <v>1365.022408251164</v>
+        <v>1220.571203849673</v>
       </c>
       <c r="K99">
-        <v>221.5567571181343</v>
+        <v>896.0952868267118</v>
       </c>
       <c r="L99">
         <v>0</v>
@@ -4592,34 +4616,34 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C100" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.334</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>53.04614724026638</v>
+        <v>0.105</v>
       </c>
       <c r="H100">
-        <v>330.3243869123872</v>
+        <v>0.06937853016302142</v>
       </c>
       <c r="I100">
-        <v>971.8400859829836</v>
+        <v>0</v>
       </c>
       <c r="J100">
-        <v>1242.001733978597</v>
+        <v>0</v>
       </c>
       <c r="K100">
-        <v>2351.214565335303</v>
+        <v>0</v>
       </c>
       <c r="L100">
         <v>0</v>
@@ -4630,34 +4654,34 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C101" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>0.582</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>0.105</v>
       </c>
       <c r="F101">
-        <v>0.54</v>
+        <v>0.3689999999999999</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>0.03375706032556355</v>
       </c>
       <c r="H101">
-        <v>18.87567925213643</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>56.69067168234071</v>
+        <v>0</v>
       </c>
       <c r="J101">
-        <v>118.0882015644143</v>
+        <v>0</v>
       </c>
       <c r="K101">
-        <v>140.1685606257585</v>
+        <v>0</v>
       </c>
       <c r="L101">
         <v>0</v>
@@ -4668,37 +4692,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C102" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="D102">
-        <v>0.08164598301763558</v>
+        <v>225.296</v>
       </c>
       <c r="E102">
-        <v>0.08164598301763558</v>
+        <v>231.634</v>
       </c>
       <c r="F102">
-        <v>0.09732201175702156</v>
+        <v>225.513</v>
       </c>
       <c r="G102">
-        <v>0.09732201175702154</v>
+        <v>263.2228582661325</v>
       </c>
       <c r="H102">
-        <v>0.605486610058785</v>
+        <v>704.8464421353992</v>
       </c>
       <c r="I102">
-        <v>3.768778576094057</v>
+        <v>1310.698275604318</v>
       </c>
       <c r="J102">
-        <v>51.86152841280209</v>
+        <v>1857.637384770093</v>
       </c>
       <c r="K102">
-        <v>51.86152841280209</v>
+        <v>2439.5585646427</v>
       </c>
       <c r="L102">
-        <v>0</v>
+        <v>2883.555982152331</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -4706,37 +4730,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C103" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>71.47929534638689</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>153.7698579639726</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>153.7698579639726</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>153.7698579639726</v>
       </c>
       <c r="H103">
-        <v>0.5861459010276536</v>
+        <v>6.942508241366317</v>
       </c>
       <c r="I103">
-        <v>0.5861459010276536</v>
+        <v>1.884389288047028</v>
       </c>
       <c r="J103">
-        <v>0.5861459010276536</v>
+        <v>11.10385369039843</v>
       </c>
       <c r="K103">
-        <v>32.61720351373854</v>
+        <v>25.93076420640105</v>
       </c>
       <c r="L103">
-        <v>2.323662359063565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -4744,37 +4768,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C104" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>231.509</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>188.4371973256372</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>81.79912695211803</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>137.5780869725753</v>
       </c>
       <c r="H104">
-        <v>0.01513195832760689</v>
+        <v>86.66154710639731</v>
       </c>
       <c r="I104">
-        <v>3.156166137474722</v>
+        <v>86.19804345676226</v>
       </c>
       <c r="J104">
-        <v>21.49992561383166</v>
+        <v>86.19804345676226</v>
       </c>
       <c r="K104">
-        <v>21.48479365550406</v>
+        <v>0</v>
       </c>
       <c r="L104">
-        <v>21.48479365550406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -4782,37 +4806,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C105" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>78.29765381649612</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>96.69685293076806</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>158.598379589345</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>106.0922944805327</v>
       </c>
       <c r="H105">
-        <v>0.008709741880417943</v>
+        <v>358.637905790592</v>
       </c>
       <c r="I105">
-        <v>0.05411122032954858</v>
+        <v>591.2027189729815</v>
       </c>
       <c r="J105">
-        <v>0.3507104898530548</v>
+        <v>1365.022408251165</v>
       </c>
       <c r="K105">
-        <v>2.183045089366952</v>
+        <v>221.5567571181343</v>
       </c>
       <c r="L105">
-        <v>12.88092546823806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -4820,10 +4844,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C106" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -4835,22 +4859,22 @@
         <v>0</v>
       </c>
       <c r="G106">
-        <v>0.2195780176643772</v>
+        <v>53.04614724026636</v>
       </c>
       <c r="H106">
-        <v>2.296365711102829</v>
+        <v>330.3243869123872</v>
       </c>
       <c r="I106">
-        <v>11.73004611093006</v>
+        <v>971.8400859829837</v>
       </c>
       <c r="J106">
-        <v>80.54890712129567</v>
+        <v>1242.001733978597</v>
       </c>
       <c r="K106">
-        <v>453.1249431839202</v>
+        <v>2351.214565335304</v>
       </c>
       <c r="L106">
-        <v>446.3313152905679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -4861,7 +4885,7 @@
         <v>72</v>
       </c>
       <c r="C107" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -4870,25 +4894,25 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>18.87567925213643</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>56.69067168234071</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>118.0882015644143</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>140.1685606257585</v>
       </c>
       <c r="L107">
-        <v>415.5613815748115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -4899,34 +4923,34 @@
         <v>73</v>
       </c>
       <c r="C108" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="D108">
-        <v>2674.134674978955</v>
+        <v>0.08164598301763558</v>
       </c>
       <c r="E108">
-        <v>3878.6634593996</v>
+        <v>0.08164598301763558</v>
       </c>
       <c r="F108">
-        <v>2109.600477042338</v>
+        <v>0.09732201175702154</v>
       </c>
       <c r="G108">
-        <v>1872.000790906013</v>
+        <v>0.09732201175702156</v>
       </c>
       <c r="H108">
-        <v>4705.79741179603</v>
+        <v>0.605486610058785</v>
       </c>
       <c r="I108">
-        <v>5250.485049792721</v>
+        <v>3.768778576094057</v>
       </c>
       <c r="J108">
-        <v>1424.924347251516</v>
+        <v>51.86152841280209</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>51.86152841280209</v>
       </c>
       <c r="L108">
-        <v>7402.488372093024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -4934,13 +4958,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C109" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="D109">
-        <v>2468.432007672881</v>
+        <v>0</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -4949,22 +4973,22 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <v>2366.491565862319</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>0.07244499900341786</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>0.07244499900341786</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>0.07244499900341786</v>
       </c>
       <c r="K109">
-        <v>0</v>
+        <v>4.031339760124987</v>
       </c>
       <c r="L109">
-        <v>0</v>
+        <v>0.2871942241539237</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -4975,7 +4999,7 @@
         <v>74</v>
       </c>
       <c r="C110" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -4990,19 +5014,19 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>0.5861459010276536</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>0.5861459010276536</v>
       </c>
       <c r="J110">
-        <v>203.2274331820474</v>
+        <v>0.5861459010276536</v>
       </c>
       <c r="K110">
-        <v>475.542107917297</v>
+        <v>32.61720351373854</v>
       </c>
       <c r="L110">
-        <v>746.3439233484618</v>
+        <v>2.323662359063565</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5013,34 +5037,34 @@
         <v>75</v>
       </c>
       <c r="C111" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D111">
-        <v>1752.636036839715</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>1857.8</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>1772.368108473768</v>
+        <v>0.01700220036809763</v>
       </c>
       <c r="G111">
-        <v>1857.8</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>1857.8</v>
+        <v>0.001870242040490739</v>
       </c>
       <c r="I111">
-        <v>1857.8</v>
+        <v>0.3900879495755273</v>
       </c>
       <c r="J111">
-        <v>1857.8</v>
+        <v>2.657294176990431</v>
       </c>
       <c r="K111">
-        <v>1646.770371340509</v>
+        <v>2.65542393494994</v>
       </c>
       <c r="L111">
-        <v>715.709614167992</v>
+        <v>2.65542393494994</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5048,10 +5072,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C112" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -5066,19 +5090,19 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>0.01513195832760689</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>3.156166137474722</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>21.49992561383166</v>
       </c>
       <c r="K112">
-        <v>37.04345078595429</v>
+        <v>21.48479365550406</v>
       </c>
       <c r="L112">
-        <v>37.04345078595429</v>
+        <v>21.48479365550406</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5086,10 +5110,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C113" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -5104,19 +5128,19 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>0.008709741880417943</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>0.05411122032954858</v>
       </c>
       <c r="J113">
-        <v>0.1387334643821726</v>
+        <v>0.3507104898530548</v>
       </c>
       <c r="K113">
-        <v>0</v>
+        <v>2.183045089366952</v>
       </c>
       <c r="L113">
-        <v>180.8910115022147</v>
+        <v>12.88092546823806</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5124,10 +5148,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C114" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -5139,22 +5163,22 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>0.2195780176643772</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2.296365711102829</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>11.73004611093006</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>80.54890712129568</v>
       </c>
       <c r="K114">
-        <v>0</v>
+        <v>453.12494318392</v>
       </c>
       <c r="L114">
-        <v>203.3067598752969</v>
+        <v>446.3313152905681</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5162,37 +5186,37 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C115" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="D115">
-        <v>3178.424932045381</v>
+        <v>0</v>
       </c>
       <c r="E115">
-        <v>3228.335660322087</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>3491.151784089623</v>
+        <v>0</v>
       </c>
       <c r="G115">
-        <v>2859.150980984311</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>2281.608027820212</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>1710.100417633708</v>
+        <v>0</v>
       </c>
       <c r="J115">
-        <v>1197.56566888208</v>
+        <v>0</v>
       </c>
       <c r="K115">
-        <v>877.2785100722955</v>
+        <v>0</v>
       </c>
       <c r="L115">
-        <v>0</v>
+        <v>415.5613815748115</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5203,34 +5227,34 @@
         <v>79</v>
       </c>
       <c r="C116" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>2674.134674978955</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>3878.6634593996</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>2109.600477042338</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>1872.000790906013</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>4705.79741179603</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>5250.485049792721</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>1424.924347251516</v>
       </c>
       <c r="K116">
         <v>0</v>
       </c>
       <c r="L116">
-        <v>1146.370841799052</v>
+        <v>7402.488372093024</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5241,10 +5265,10 @@
         <v>79</v>
       </c>
       <c r="C117" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>2468.432007672881</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -5253,22 +5277,22 @@
         <v>0</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>2366.491565862319</v>
       </c>
       <c r="H117">
-        <v>54.24513482741128</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>54.24513482741128</v>
+        <v>0</v>
       </c>
       <c r="J117">
-        <v>54.24513482741128</v>
+        <v>0</v>
       </c>
       <c r="K117">
-        <v>47.79549000393875</v>
+        <v>0</v>
       </c>
       <c r="L117">
-        <v>73.17260692334376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5279,34 +5303,34 @@
         <v>80</v>
       </c>
       <c r="C118" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="D118">
-        <v>220.2</v>
+        <v>0</v>
       </c>
       <c r="E118">
-        <v>220.2</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>220.2</v>
+        <v>0</v>
       </c>
       <c r="G118">
-        <v>222.1198162428377</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>316.6227508733306</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>421.5242980777733</v>
+        <v>0</v>
       </c>
       <c r="J118">
-        <v>443.3967152973962</v>
+        <v>203.2274331820474</v>
       </c>
       <c r="K118">
-        <v>444.944598559625</v>
+        <v>475.5421079172971</v>
       </c>
       <c r="L118">
-        <v>350.0815712850486</v>
+        <v>746.3439233484619</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5317,34 +5341,34 @@
         <v>81</v>
       </c>
       <c r="C119" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>1752.636036839715</v>
       </c>
       <c r="E119">
-        <v>640.4039317201214</v>
+        <v>1857.8</v>
       </c>
       <c r="F119">
-        <v>567.5204770677034</v>
+        <v>1772.368108473768</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>1857.8</v>
       </c>
       <c r="H119">
-        <v>783.1062463885925</v>
+        <v>1857.8</v>
       </c>
       <c r="I119">
-        <v>827.7569522119653</v>
+        <v>1857.8</v>
       </c>
       <c r="J119">
-        <v>887.0612494637597</v>
+        <v>1857.8</v>
       </c>
       <c r="K119">
-        <v>23.06433713400476</v>
+        <v>1646.770371340509</v>
       </c>
       <c r="L119">
-        <v>740.0218180288622</v>
+        <v>715.709614167992</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5352,13 +5376,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C120" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D120">
-        <v>680.6985232132699</v>
+        <v>0</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -5367,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="G120">
-        <v>732.0762418572448</v>
+        <v>0</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -5379,10 +5403,10 @@
         <v>0</v>
       </c>
       <c r="K120">
-        <v>827.6520163052149</v>
+        <v>4.578404029724688</v>
       </c>
       <c r="L120">
-        <v>0</v>
+        <v>4.578404029724687</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -5393,34 +5417,34 @@
         <v>82</v>
       </c>
       <c r="C121" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D121">
-        <v>357.4100000000001</v>
+        <v>0</v>
       </c>
       <c r="E121">
-        <v>306.3050915076228</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>255.1366251255762</v>
+        <v>0</v>
       </c>
       <c r="G121">
-        <v>308.0500143492361</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>349.1520609537639</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>342.6243392514357</v>
+        <v>0</v>
       </c>
       <c r="J121">
-        <v>379.3068976112505</v>
+        <v>0</v>
       </c>
       <c r="K121">
-        <v>269.3893244413276</v>
+        <v>37.04345078595429</v>
       </c>
       <c r="L121">
-        <v>148.1535178186782</v>
+        <v>37.04345078595429</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5431,34 +5455,34 @@
         <v>83</v>
       </c>
       <c r="C122" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="D122">
-        <v>80.8555555555531</v>
+        <v>0</v>
       </c>
       <c r="E122">
-        <v>63.5255030864195</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>50.71481481481426</v>
+        <v>0.1558802970586208</v>
       </c>
       <c r="G122">
-        <v>104.3764037476458</v>
+        <v>0</v>
       </c>
       <c r="H122">
-        <v>53.47996266709659</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>34.38563716258651</v>
+        <v>0</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>0.01714683267644829</v>
       </c>
       <c r="K122">
         <v>0</v>
       </c>
       <c r="L122">
-        <v>0</v>
+        <v>22.35731602836362</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5466,37 +5490,37 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C123" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D123">
-        <v>175.2289212311769</v>
+        <v>0</v>
       </c>
       <c r="E123">
-        <v>153.4014736858363</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>128.7570829919062</v>
+        <v>0</v>
       </c>
       <c r="G123">
-        <v>108.3241126759468</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>69.3187921798752</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>58.85713291362876</v>
+        <v>0</v>
       </c>
       <c r="J123">
-        <v>35.65479387825046</v>
+        <v>0.1387334643821726</v>
       </c>
       <c r="K123">
-        <v>35.13775133489406</v>
+        <v>0</v>
       </c>
       <c r="L123">
-        <v>32.27130676372845</v>
+        <v>180.8910115022147</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5507,7 +5531,7 @@
         <v>84</v>
       </c>
       <c r="C124" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -5534,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="L124">
-        <v>0.9507052818220687</v>
+        <v>203.3067598752969</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5545,34 +5569,34 @@
         <v>85</v>
       </c>
       <c r="C125" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D125">
-        <v>41.68594321543012</v>
+        <v>3178.424932045381</v>
       </c>
       <c r="E125">
-        <v>391.8786207994796</v>
+        <v>3228.335660322087</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>3491.151784089623</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>2859.15098098431</v>
       </c>
       <c r="H125">
-        <v>177.4408636573365</v>
+        <v>2281.608027820212</v>
       </c>
       <c r="I125">
-        <v>152.5180899172605</v>
+        <v>1710.100417633708</v>
       </c>
       <c r="J125">
-        <v>126.328282129297</v>
+        <v>1197.56566888208</v>
       </c>
       <c r="K125">
-        <v>127.8428891886298</v>
+        <v>877.2785100722957</v>
       </c>
       <c r="L125">
-        <v>127.8124751954571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5583,19 +5607,19 @@
         <v>85</v>
       </c>
       <c r="C126" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D126">
-        <v>479.3883469774466</v>
+        <v>0</v>
       </c>
       <c r="E126">
         <v>0</v>
       </c>
       <c r="F126">
-        <v>449.4748697087121</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>326.8735722352504</v>
+        <v>0</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -5610,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="L126">
-        <v>0</v>
+        <v>1146.370841799052</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5618,37 +5642,37 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C127" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="D127">
-        <v>623.2406582281039</v>
+        <v>0</v>
       </c>
       <c r="E127">
-        <v>549.9596905924604</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>466.9765603077898</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>258.2396419199683</v>
+        <v>0</v>
       </c>
       <c r="H127">
-        <v>103.896149850837</v>
+        <v>54.24513482741128</v>
       </c>
       <c r="I127">
-        <v>45.02213167484755</v>
+        <v>54.24513482741128</v>
       </c>
       <c r="J127">
-        <v>0</v>
+        <v>54.24513482741128</v>
       </c>
       <c r="K127">
-        <v>0</v>
+        <v>47.79549000393875</v>
       </c>
       <c r="L127">
-        <v>0</v>
+        <v>73.17260692334376</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5659,34 +5683,34 @@
         <v>86</v>
       </c>
       <c r="C128" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>220.2</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>220.2</v>
       </c>
       <c r="F128">
-        <v>60.68056998349811</v>
+        <v>220.2</v>
       </c>
       <c r="G128">
-        <v>33.55656363931791</v>
+        <v>222.1198162428377</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>316.6227508733306</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>421.5242980777733</v>
       </c>
       <c r="J128">
-        <v>0</v>
+        <v>443.3967152973961</v>
       </c>
       <c r="K128">
-        <v>0</v>
+        <v>444.9445985596249</v>
       </c>
       <c r="L128">
-        <v>0</v>
+        <v>350.0815712850485</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -5694,37 +5718,37 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C129" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="D129">
-        <v>80.98607423303045</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>71.46368860805983</v>
+        <v>640.4039317201214</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>567.5204770677034</v>
       </c>
       <c r="G129">
         <v>0</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>783.1062463885925</v>
       </c>
       <c r="I129">
-        <v>5.850333494471714</v>
+        <v>827.7569522119653</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>887.0612494637597</v>
       </c>
       <c r="K129">
-        <v>0</v>
+        <v>23.06433713400476</v>
       </c>
       <c r="L129">
-        <v>0</v>
+        <v>740.0218180288622</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -5735,34 +5759,34 @@
         <v>87</v>
       </c>
       <c r="C130" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="D130">
-        <v>92.07276209201211</v>
+        <v>680.6985232132699</v>
       </c>
       <c r="E130">
-        <v>46.6704216644445</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>55.6202308373899</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>173.4792969101763</v>
+        <v>732.0762418572448</v>
       </c>
       <c r="H130">
-        <v>117.32</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>117.32</v>
+        <v>0</v>
       </c>
       <c r="J130">
-        <v>115.3313253012048</v>
+        <v>0</v>
       </c>
       <c r="K130">
-        <v>100.1620591463841</v>
+        <v>827.6520163052149</v>
       </c>
       <c r="L130">
-        <v>51.78725429028584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -5770,37 +5794,37 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C131" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>357.4100000000001</v>
       </c>
       <c r="E131">
-        <v>36.66961702206352</v>
+        <v>306.3050915076228</v>
       </c>
       <c r="F131">
-        <v>43.70160994366348</v>
+        <v>255.1366251255762</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>308.0500143492361</v>
       </c>
       <c r="H131">
-        <v>92.17999999999998</v>
+        <v>349.1520609537639</v>
       </c>
       <c r="I131">
-        <v>92.17999999999998</v>
+        <v>342.6243392514357</v>
       </c>
       <c r="J131">
-        <v>90.61746987951804</v>
+        <v>379.3068976112505</v>
       </c>
       <c r="K131">
-        <v>78.69876075787316</v>
+        <v>269.3893244413276</v>
       </c>
       <c r="L131">
-        <v>0</v>
+        <v>148.1535178186782</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -5808,28 +5832,28 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C132" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>80.8555555555531</v>
       </c>
       <c r="E132">
-        <v>59.53332248953484</v>
+        <v>63.5255030864195</v>
       </c>
       <c r="F132">
-        <v>212.658157106295</v>
+        <v>50.71481481481426</v>
       </c>
       <c r="G132">
-        <v>178.2218388885222</v>
+        <v>104.3764037476458</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>53.47996266709659</v>
       </c>
       <c r="I132">
-        <v>10.71852315445315</v>
+        <v>34.38563716258651</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -5846,37 +5870,37 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C133" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D133">
-        <v>90.77</v>
+        <v>175.2289212311769</v>
       </c>
       <c r="E133">
-        <v>90.77</v>
+        <v>153.4014736858363</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>128.7570829919063</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>108.3241126759468</v>
       </c>
       <c r="H133">
-        <v>36.46118200793937</v>
+        <v>69.31879217987522</v>
       </c>
       <c r="I133">
-        <v>18.09085655402421</v>
+        <v>58.85713291362876</v>
       </c>
       <c r="J133">
-        <v>31.15810632012758</v>
+        <v>35.65479387825046</v>
       </c>
       <c r="K133">
-        <v>15.57905316013844</v>
+        <v>35.13775133489407</v>
       </c>
       <c r="L133">
-        <v>0</v>
+        <v>32.27130676372845</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -5884,28 +5908,28 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C134" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D134">
-        <v>426.52</v>
+        <v>0</v>
       </c>
       <c r="E134">
-        <v>383.1151009654343</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>324.7590524416734</v>
+        <v>0</v>
       </c>
       <c r="G134">
-        <v>133.3948164698633</v>
+        <v>0</v>
       </c>
       <c r="H134">
-        <v>38.9376133093572</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>3.066115644835044</v>
+        <v>0</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -5914,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="L134">
-        <v>0</v>
+        <v>0.9507052818220687</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -5922,16 +5946,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>41.68594321543012</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>391.8786207994796</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -5940,19 +5964,19 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>140.0934980592806</v>
+        <v>177.4408636573365</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>152.5180899172605</v>
       </c>
       <c r="J135">
-        <v>0</v>
+        <v>126.328282129297</v>
       </c>
       <c r="K135">
-        <v>119.6076714767827</v>
+        <v>127.8428891886298</v>
       </c>
       <c r="L135">
-        <v>38.74193012816937</v>
+        <v>127.8124751954571</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -5960,22 +5984,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C136" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>479.3883469774466</v>
       </c>
       <c r="E136">
         <v>0</v>
       </c>
       <c r="F136">
-        <v>30.13756693560387</v>
+        <v>449.4748697087121</v>
       </c>
       <c r="G136">
-        <v>14.54127536148236</v>
+        <v>326.8735722352504</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -5998,31 +6022,31 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C137" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D137">
-        <v>886.5427268542666</v>
+        <v>623.2406582281039</v>
       </c>
       <c r="E137">
-        <v>964.3446048651894</v>
+        <v>549.9596905924604</v>
       </c>
       <c r="F137">
-        <v>1143.507084965895</v>
+        <v>466.9765603077898</v>
       </c>
       <c r="G137">
-        <v>633.9244424511537</v>
+        <v>258.2396419199683</v>
       </c>
       <c r="H137">
-        <v>537.5666460481427</v>
+        <v>103.896149850837</v>
       </c>
       <c r="I137">
-        <v>735.3974826895684</v>
+        <v>45.02213167484755</v>
       </c>
       <c r="J137">
-        <v>344.3974822720231</v>
+        <v>0</v>
       </c>
       <c r="K137">
         <v>0</v>
@@ -6036,31 +6060,31 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C138" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D138">
-        <v>21.66035</v>
+        <v>0</v>
       </c>
       <c r="E138">
-        <v>39.41496207041448</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>43.67374305662841</v>
+        <v>60.68056998349811</v>
       </c>
       <c r="G138">
-        <v>61.4272657709348</v>
+        <v>33.55656363931791</v>
       </c>
       <c r="H138">
-        <v>61.16440027263842</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>57.99976525076141</v>
+        <v>0</v>
       </c>
       <c r="J138">
-        <v>32.9168376750313</v>
+        <v>0</v>
       </c>
       <c r="K138">
         <v>0</v>
@@ -6074,19 +6098,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C139" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="D139">
-        <v>1595.408930061753</v>
+        <v>80.98607423303045</v>
       </c>
       <c r="E139">
-        <v>1595.408930061753</v>
+        <v>71.46368860805983</v>
       </c>
       <c r="F139">
-        <v>766.6332336346785</v>
+        <v>0</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -6095,16 +6119,16 @@
         <v>0</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>5.850333494471714</v>
       </c>
       <c r="J139">
         <v>0</v>
       </c>
       <c r="K139">
-        <v>243.3704842909765</v>
+        <v>0</v>
       </c>
       <c r="L139">
-        <v>971.3765235431697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6112,37 +6136,37 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C140" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D140">
-        <v>6.905882034065938</v>
+        <v>92.07276209201211</v>
       </c>
       <c r="E140">
-        <v>10.06239195272875</v>
+        <v>46.6704216644445</v>
       </c>
       <c r="F140">
-        <v>13.41650773373657</v>
+        <v>55.6202308373899</v>
       </c>
       <c r="G140">
-        <v>22.98670231912716</v>
+        <v>173.4792969101763</v>
       </c>
       <c r="H140">
-        <v>32.12478598890411</v>
+        <v>117.32</v>
       </c>
       <c r="I140">
-        <v>35.84777211524334</v>
+        <v>117.32</v>
       </c>
       <c r="J140">
-        <v>36.05426602140292</v>
+        <v>115.3313253012048</v>
       </c>
       <c r="K140">
-        <v>36.68619410428681</v>
+        <v>100.1620591463841</v>
       </c>
       <c r="L140">
-        <v>38.11568153160242</v>
+        <v>51.78725429028584</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -6153,31 +6177,31 @@
         <v>93</v>
       </c>
       <c r="C141" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="D141">
-        <v>0.9427083333333335</v>
+        <v>0</v>
       </c>
       <c r="E141">
-        <v>11.741</v>
+        <v>36.66961702206352</v>
       </c>
       <c r="F141">
-        <v>0.6284722222222222</v>
+        <v>43.70160994366348</v>
       </c>
       <c r="G141">
-        <v>11.741</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>11.741</v>
+        <v>92.17999999999998</v>
       </c>
       <c r="I141">
-        <v>11.741</v>
+        <v>92.17999999999998</v>
       </c>
       <c r="J141">
-        <v>8.995773035400539</v>
+        <v>90.61746987951804</v>
       </c>
       <c r="K141">
-        <v>0</v>
+        <v>78.69876075787316</v>
       </c>
       <c r="L141">
         <v>0</v>
@@ -6191,34 +6215,34 @@
         <v>94</v>
       </c>
       <c r="C142" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="D142">
-        <v>996.3744147661358</v>
+        <v>0</v>
       </c>
       <c r="E142">
-        <v>986.579545674105</v>
+        <v>59.53332248953484</v>
       </c>
       <c r="F142">
-        <v>953.129074043062</v>
+        <v>212.658157106295</v>
       </c>
       <c r="G142">
-        <v>1006.317610940497</v>
+        <v>178.2218388885222</v>
       </c>
       <c r="H142">
-        <v>941.2161457641107</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>942.7347057507445</v>
+        <v>10.71852315445315</v>
       </c>
       <c r="J142">
-        <v>918.1786515206338</v>
+        <v>0</v>
       </c>
       <c r="K142">
-        <v>1057.628727882941</v>
+        <v>0</v>
       </c>
       <c r="L142">
-        <v>1515.782406812283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6226,16 +6250,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C143" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>90.77</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>90.77</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -6244,19 +6268,19 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>36.46118200793937</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>18.09085655402421</v>
       </c>
       <c r="J143">
-        <v>0</v>
+        <v>31.15810632012758</v>
       </c>
       <c r="K143">
-        <v>0</v>
+        <v>15.57905316013844</v>
       </c>
       <c r="L143">
-        <v>512.0370876355698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -6264,37 +6288,455 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
+        <v>95</v>
+      </c>
+      <c r="C144" t="s">
+        <v>112</v>
+      </c>
+      <c r="D144">
+        <v>426.52</v>
+      </c>
+      <c r="E144">
+        <v>383.1151009654343</v>
+      </c>
+      <c r="F144">
+        <v>324.7590524416734</v>
+      </c>
+      <c r="G144">
+        <v>133.3948164698633</v>
+      </c>
+      <c r="H144">
+        <v>38.9376133093572</v>
+      </c>
+      <c r="I144">
+        <v>3.066115644835044</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
         <v>96</v>
       </c>
-      <c r="C144" t="s">
-        <v>140</v>
-      </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-      <c r="G144">
+      <c r="C145" t="s">
+        <v>117</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>140.0934980592806</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>119.6076714767827</v>
+      </c>
+      <c r="L145">
+        <v>38.74193012816937</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>96</v>
+      </c>
+      <c r="C146" t="s">
+        <v>106</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>30.13756693560387</v>
+      </c>
+      <c r="G146">
+        <v>14.54127536148236</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>96</v>
+      </c>
+      <c r="C147" t="s">
+        <v>118</v>
+      </c>
+      <c r="D147">
+        <v>886.5427268542666</v>
+      </c>
+      <c r="E147">
+        <v>964.3446048651894</v>
+      </c>
+      <c r="F147">
+        <v>1143.507084965895</v>
+      </c>
+      <c r="G147">
+        <v>633.9244424511537</v>
+      </c>
+      <c r="H147">
+        <v>537.5666460481427</v>
+      </c>
+      <c r="I147">
+        <v>735.3974826895684</v>
+      </c>
+      <c r="J147">
+        <v>344.3974822720231</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>96</v>
+      </c>
+      <c r="C148" t="s">
+        <v>135</v>
+      </c>
+      <c r="D148">
+        <v>21.66035</v>
+      </c>
+      <c r="E148">
+        <v>39.41496207041448</v>
+      </c>
+      <c r="F148">
+        <v>43.67374305662841</v>
+      </c>
+      <c r="G148">
+        <v>61.42726577093481</v>
+      </c>
+      <c r="H148">
+        <v>61.16440027263842</v>
+      </c>
+      <c r="I148">
+        <v>57.99976525076141</v>
+      </c>
+      <c r="J148">
+        <v>32.9168376750313</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>97</v>
+      </c>
+      <c r="C149" t="s">
+        <v>138</v>
+      </c>
+      <c r="D149">
+        <v>1595.408930061753</v>
+      </c>
+      <c r="E149">
+        <v>1595.408930061753</v>
+      </c>
+      <c r="F149">
+        <v>766.6332336346787</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>243.3704842909765</v>
+      </c>
+      <c r="L149">
+        <v>971.3765235431697</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>98</v>
+      </c>
+      <c r="C150" t="s">
+        <v>106</v>
+      </c>
+      <c r="D150">
+        <v>6.905882034065938</v>
+      </c>
+      <c r="E150">
+        <v>10.06239195272875</v>
+      </c>
+      <c r="F150">
+        <v>13.41650773373657</v>
+      </c>
+      <c r="G150">
+        <v>22.98670231912717</v>
+      </c>
+      <c r="H150">
+        <v>32.12478598890412</v>
+      </c>
+      <c r="I150">
+        <v>35.84777211524334</v>
+      </c>
+      <c r="J150">
+        <v>36.05426602140292</v>
+      </c>
+      <c r="K150">
+        <v>36.6861941042868</v>
+      </c>
+      <c r="L150">
+        <v>38.11568153160243</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>99</v>
+      </c>
+      <c r="C151" t="s">
+        <v>122</v>
+      </c>
+      <c r="D151">
+        <v>0.9427083333333335</v>
+      </c>
+      <c r="E151">
+        <v>11.741</v>
+      </c>
+      <c r="F151">
+        <v>0.6284722222222222</v>
+      </c>
+      <c r="G151">
+        <v>11.741</v>
+      </c>
+      <c r="H151">
+        <v>11.741</v>
+      </c>
+      <c r="I151">
+        <v>11.741</v>
+      </c>
+      <c r="J151">
+        <v>8.995773035400539</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>100</v>
+      </c>
+      <c r="C152" t="s">
+        <v>105</v>
+      </c>
+      <c r="D152">
+        <v>4145.937</v>
+      </c>
+      <c r="E152">
+        <v>4145.128999999999</v>
+      </c>
+      <c r="F152">
+        <v>4067.867</v>
+      </c>
+      <c r="G152">
+        <v>4319.129933300202</v>
+      </c>
+      <c r="H152">
+        <v>4651.312712827792</v>
+      </c>
+      <c r="I152">
+        <v>5040.776311487628</v>
+      </c>
+      <c r="J152">
+        <v>5824.161421030115</v>
+      </c>
+      <c r="K152">
+        <v>6522.262992973148</v>
+      </c>
+      <c r="L152">
+        <v>7362.259247771415</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>101</v>
+      </c>
+      <c r="C153" t="s">
+        <v>136</v>
+      </c>
+      <c r="D153">
+        <v>996.3744147661361</v>
+      </c>
+      <c r="E153">
+        <v>986.5795456741051</v>
+      </c>
+      <c r="F153">
+        <v>953.1290740430621</v>
+      </c>
+      <c r="G153">
+        <v>1006.317610940496</v>
+      </c>
+      <c r="H153">
+        <v>941.2161457641107</v>
+      </c>
+      <c r="I153">
+        <v>942.7347057507446</v>
+      </c>
+      <c r="J153">
+        <v>918.1786515206337</v>
+      </c>
+      <c r="K153">
+        <v>1057.628727882941</v>
+      </c>
+      <c r="L153">
+        <v>1515.782406812284</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>102</v>
+      </c>
+      <c r="C154" t="s">
+        <v>147</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>512.0370876355698</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>103</v>
+      </c>
+      <c r="C155" t="s">
+        <v>148</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
         <v>200.4436196715045</v>
       </c>
-      <c r="H144">
-        <v>646.8182902993503</v>
-      </c>
-      <c r="I144">
-        <v>793.386046011751</v>
-      </c>
-      <c r="J144">
-        <v>803.5714608863273</v>
-      </c>
-      <c r="K144">
+      <c r="H155">
+        <v>646.8182902993505</v>
+      </c>
+      <c r="I155">
+        <v>793.3860460117511</v>
+      </c>
+      <c r="J155">
+        <v>803.5714608863274</v>
+      </c>
+      <c r="K155">
         <v>831.6284727096548</v>
       </c>
-      <c r="L144">
-        <v>311.9699242256103</v>
+      <c r="L155">
+        <v>311.9699242256102</v>
       </c>
     </row>
   </sheetData>
@@ -6315,7 +6757,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
